--- a/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
@@ -7631,17 +7631,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>MENTHA SPICATA (HIERBABUENA)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -7651,88 +7651,88 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>31.46</v>
+        <v>32.37</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.4</v>
+        <v>11.23</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>23.33</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>46</v>
+        <v>-13</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T9" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/02/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA (HIERBABUENA)</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -7742,71 +7742,71 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>32.37</v>
+        <v>31.46</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.23</v>
+        <v>10.4</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0</v>
+        <v>23.33</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>-13</v>
+        <v>46</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T10" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/02/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9178,17 +9178,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>CALENDULA OFFICINALIS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>C17A20</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -9210,37 +9210,37 @@
         <v>15</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>33.96</v>
+        <v>43.78</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>16.35</v>
+        <v>25.28</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>33.33</v>
+        <v>36.67</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.5</v>
+        <v>8.4</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>206.67</v>
+        <v>160</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Compra 04/02/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -9269,17 +9269,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>C17A20</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -9301,37 +9301,37 @@
         <v>15</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>43.78</v>
+        <v>33.96</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>25.28</v>
+        <v>16.35</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>36.67</v>
+        <v>33.33</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>160</v>
+        <v>206.67</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>30</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/02/2025</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -13527,17 +13527,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7202520002</t>
+          <t>7401740015</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS MIX</t>
+          <t>ALYSSUM MARITIMUN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M7A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -13547,49 +13547,49 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>8.94</v>
+        <v>22.5</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.19</v>
+        <v>14.51</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.14</v>
+        <v>15</v>
       </c>
       <c r="L8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>59</v>
-      </c>
       <c r="R8" s="4" t="n">
-        <v>393.33</v>
+        <v>193.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/01/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -13618,17 +13618,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7401740015</t>
+          <t>7202520002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ALYSSUM MARITIMUN</t>
+          <t>HYACINTHUS MIX</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M7A15</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -13638,49 +13638,49 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.5</v>
+        <v>8.94</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>14.51</v>
+        <v>2.19</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15</v>
+        <v>17.14</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>193.33</v>
+        <v>393.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -13692,12 +13692,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -14073,12 +14073,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7905130003</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>COL BRUSELAS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -14114,10 +14114,10 @@
         <v>5.54</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0.4</v>
@@ -14126,10 +14126,10 @@
         <v>1.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -14164,12 +14164,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7905130003</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -14205,10 +14205,10 @@
         <v>5.54</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0.4</v>
@@ -14217,10 +14217,10 @@
         <v>1.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -15893,12 +15893,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7905040001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>PIMIENTO ITALIANO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -15928,10 +15928,10 @@
         <v>4</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>11.4</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>6.48</v>
+        <v>5.17</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>26.67</v>
@@ -15949,7 +15949,7 @@
         <v>11</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>3</v>
@@ -15984,17 +15984,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -16004,12 +16004,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -16019,13 +16019,13 @@
         <v>4</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.21</v>
+        <v>6.48</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>44.44</v>
+        <v>26.67</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -16037,55 +16037,55 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T35" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7905040001</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO ITALIANO</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -16095,12 +16095,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -16110,13 +16110,13 @@
         <v>4</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>10</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>26.67</v>
+        <v>44.44</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -16128,38 +16128,38 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17986,12 +17986,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7901010006</t>
+          <t>7901010008</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
+          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -18168,12 +18168,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7901010008</t>
+          <t>7901010006</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
+          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -18987,12 +18987,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7205030001</t>
+          <t>7501010001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN MINI</t>
+          <t>CALLUNA TINTADA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -19002,17 +19002,17 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -19043,7 +19043,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0</v>
@@ -19078,32 +19078,32 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7401250001</t>
+          <t>7205030001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS BARBATUS</t>
+          <t>CYCLAMEN MINI</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>BICOLOR</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -19169,32 +19169,32 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7501010001</t>
+          <t>7401250001</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA TINTADA</t>
+          <t>DIANTHUS BARBATUS</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>BICOLOR</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -19225,7 +19225,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Q70" s="4" t="n">
         <v>0</v>
@@ -20261,12 +20261,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7205090001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>VIOLA CORNUTA</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -20317,7 +20317,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -20352,12 +20352,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7205090001</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>VIOLA CORNUTA</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -20408,7 +20408,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -20606,17 +20606,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7401740039</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>PHYLICA ERICOIDES</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -20659,19 +20659,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -20680,12 +20680,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -20697,32 +20697,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7905070001</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA FIGUERAS</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>PACK12</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYACINTHUS ORIENTALIS</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -20741,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -20750,19 +20742,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -20771,12 +20763,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -20788,32 +20780,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7401740024</t>
+          <t>7201530001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CAREX COMANS</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>2LA20</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -20832,7 +20816,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -20841,7 +20825,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -20862,7 +20846,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -20879,17 +20863,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -20899,12 +20883,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -20923,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -20932,16 +20916,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>153.33</v>
+        <v>393.33</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>30</v>
@@ -20953,12 +20937,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -20970,17 +20954,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7901010005</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>FRESA SAN ANDREAS</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -20990,12 +20974,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -21014,7 +20998,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -21023,19 +21007,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -21044,12 +21028,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -21061,17 +21045,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7401740020</t>
+          <t>7805110003</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CAREX OSHIMENSIS</t>
+          <t>SALVIA MYCROFOLIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>2LA25</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -21081,12 +21065,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -21105,7 +21089,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -21114,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -21135,7 +21119,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -21152,17 +21136,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -21172,12 +21156,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -21196,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -21205,19 +21189,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
@@ -21226,12 +21210,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -21243,17 +21227,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>MENTHA SPICATA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>T25A25</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -21287,7 +21271,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -21296,16 +21280,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>393.33</v>
+        <v>153.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -21317,12 +21301,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -21334,17 +21318,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7401740035</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>ANGELONIA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -21378,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -21387,7 +21371,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -21408,7 +21392,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -21425,17 +21409,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7803160003</t>
+          <t>7905040015</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SATIVA</t>
+          <t>PIMIENTO PICANTE THAI</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -21445,12 +21429,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -21469,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -21478,19 +21462,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -21499,12 +21483,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -21516,32 +21500,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7201400002</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>3LA55</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PORTULACA UMBRATICOLA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -21560,7 +21536,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -21569,7 +21545,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -21590,7 +21566,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -21607,17 +21583,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7905040016</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -21627,12 +21603,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -21651,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -21660,19 +21636,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -21681,12 +21657,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -21698,17 +21674,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -21718,12 +21694,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -21742,7 +21718,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -21751,7 +21727,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -21772,7 +21748,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -21789,17 +21765,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7206030005</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>CYCLAMEN VINO TINTO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>C25COLG</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -21809,12 +21785,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -21833,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -21842,7 +21818,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -21863,7 +21839,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -21880,17 +21856,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>T25A20</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -21900,12 +21876,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -21924,7 +21900,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -21933,19 +21909,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>393.33</v>
+        <v>66.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -21954,12 +21930,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -21971,12 +21947,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -22015,7 +21991,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -22024,16 +22000,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -22045,12 +22021,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -22062,17 +22038,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7401740005</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -22082,12 +22058,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -22106,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -22115,7 +22091,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -22136,7 +22112,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -22153,17 +22129,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -22173,12 +22149,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -22197,7 +22173,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -22206,16 +22182,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>393.33</v>
+        <v>253.33</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -22227,12 +22203,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -22244,17 +22220,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7805110003</t>
+          <t>7905040009</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SALVIA MYCROFOLIA</t>
+          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -22264,12 +22240,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -22288,7 +22264,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -22297,19 +22273,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -22318,12 +22294,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -22335,16 +22311,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7201530004</t>
+          <t>7206030002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CATHARANTHUS ROSEUS</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>CYCLAMEN PERSICUM</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>C17A40</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -22371,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -22380,7 +22364,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -22401,7 +22385,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -22418,17 +22402,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>5LA25</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -22438,12 +22422,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -22462,7 +22446,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -22471,19 +22455,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -22492,12 +22476,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -22509,24 +22493,16 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7206100001</t>
+          <t>7201530003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA OBCONICA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM MIX M10</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -22553,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -22562,19 +22538,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -22583,12 +22559,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -22600,17 +22576,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7401740043</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>CONVOLVULUS CNEORUM</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -22659,13 +22635,13 @@
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -22674,12 +22650,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -22691,17 +22667,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7201530011</t>
+          <t>7905070001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FREESIA HYBRIDA</t>
+          <t>CEBOLLA FIGUERAS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -22711,12 +22687,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -22735,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -22744,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -22782,17 +22758,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7201050001</t>
+          <t>7401740020</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA SEMPERFLORENS</t>
+          <t>CAREX OSHIMENSIS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2LA25</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -22802,12 +22778,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -22826,7 +22802,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -22835,19 +22811,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -22856,12 +22832,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -22873,32 +22849,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7401340000</t>
+          <t>7201530002</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>GAURA LINDHEIMERI</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>2I5LA25</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -22917,7 +22885,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -22926,7 +22894,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
@@ -22947,7 +22915,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -22964,17 +22932,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>7203230000</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>GERBERA JAMESONII</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>3LA45</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -22984,12 +22952,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -23008,7 +22976,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -23017,7 +22985,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -23055,17 +23023,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7401740044</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>DURANTA REPENS</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>3LA45</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -23075,12 +23043,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -23099,7 +23067,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -23108,19 +23076,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -23129,12 +23097,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -23146,17 +23114,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>7205080001</t>
+          <t>7201050001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>BELLIS PERENNIS</t>
+          <t>BEGONIA SEMPERFLORENS</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -23190,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -23199,16 +23167,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>0</v>
@@ -23225,7 +23193,7 @@
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -23237,17 +23205,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>7805070001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -23257,12 +23225,12 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -23281,7 +23249,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -23290,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -23311,7 +23279,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -23328,17 +23296,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7203230000</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>GERBERA JAMESONII</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -23372,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -23381,19 +23349,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -23402,12 +23370,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -23419,17 +23387,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7202520009</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>SOLANUM PSEUDOCAPSICUM</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -23463,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -23472,19 +23440,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
@@ -23493,12 +23461,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -23510,17 +23478,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7206020003</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN PALODOSUM</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -23530,12 +23498,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -23554,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -23563,7 +23531,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -23584,7 +23552,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -23601,17 +23569,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -23645,7 +23613,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -23654,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -23692,17 +23660,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7201350001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>TAGETES PATULA</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>5LA25</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -23712,12 +23680,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -23736,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -23745,19 +23713,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -23766,12 +23734,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -23783,17 +23751,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>7401740010</t>
+          <t>7401150001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+          <t>CAMPANULA MEZCLA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -23827,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -23836,16 +23804,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>0</v>
@@ -23862,7 +23830,7 @@
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -23965,32 +23933,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7401740044</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>DURANTA REPENS</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>2I5LA35</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALENDULA OFFICINALIS</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -24009,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -24018,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
@@ -24039,7 +23999,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -24056,17 +24016,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7401740010</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -24100,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -24109,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
@@ -24147,32 +24107,32 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>7104090001</t>
+          <t>7503010004</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>CHRYSANTHEMUN POMPON</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>T23A30</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -24191,7 +24151,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -24200,7 +24160,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -24221,7 +24181,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -24238,17 +24198,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7803250006</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>1I6LA30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -24258,12 +24218,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -24282,7 +24242,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -24291,19 +24251,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T42" s="7" t="inlineStr">
         <is>
@@ -24312,12 +24272,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -24329,17 +24289,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -24349,12 +24309,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -24373,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -24382,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -24403,7 +24363,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -24420,32 +24380,32 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>7503010004</t>
+          <t>7901010009</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN POMPON</t>
+          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>T23A30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -24464,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -24473,19 +24433,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -24494,12 +24454,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -24511,12 +24471,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -24577,7 +24537,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -24594,24 +24554,32 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>7201530001</t>
+          <t>7401740039</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
+          <t>PHYLICA ERICOIDES</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>2I5LA30</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -24630,7 +24598,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -24639,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -24660,7 +24628,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -24677,17 +24645,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>7203280002</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA COPA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>C20A50</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -24721,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -24730,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -24751,7 +24719,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -24768,17 +24736,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7401740040</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>TECOMARIA CAPENSIS</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -24788,12 +24756,12 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -24812,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -24821,7 +24789,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -24842,7 +24810,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -24859,17 +24827,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>C23A30</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -24903,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -24912,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
@@ -24933,7 +24901,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -24950,17 +24918,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -24994,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -25003,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -25024,7 +24992,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -25041,17 +25009,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -25061,12 +25029,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -25085,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -25094,19 +25062,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>100</v>
+        <v>53.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -25115,12 +25083,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/02/2025</t>
+          <t>Compra 20/02/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -25132,17 +25100,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>7501020003</t>
+          <t>7804090001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ERICA GRACILIS ROOD</t>
+          <t>ALLIUM SCHOENOPRASUM</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -25152,12 +25120,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -25176,7 +25144,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -25185,7 +25153,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -25206,7 +25174,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -25223,17 +25191,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>T25A25</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -25267,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -25276,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -25297,7 +25265,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -25314,17 +25282,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7805070001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -25334,12 +25302,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -25358,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -25367,7 +25335,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -25388,7 +25356,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -25405,17 +25373,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7804090001</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ALLIUM SCHOENOPRASUM</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -25425,12 +25393,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -25449,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -25458,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
@@ -25479,7 +25447,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -25496,24 +25464,32 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7401380000</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr"/>
-      <c r="D56" s="3" t="inlineStr"/>
+          <t>GAZANIA RIGENS (GAZOO)</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>1I6LA20</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -25532,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -25541,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -25562,12 +25538,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -25579,17 +25555,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>M12A20</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -25599,12 +25575,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -25623,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -25632,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -25653,7 +25629,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -25670,17 +25646,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7901010009</t>
+          <t>7202290001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+          <t>LOBELIA ERINUS TRICOLOR</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>3I6LCOLG</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -25690,12 +25666,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -25714,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -25723,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
@@ -25761,17 +25737,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7401340000</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>GAURA LINDHEIMERI</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -25781,12 +25757,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -25805,7 +25781,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -25814,7 +25790,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
@@ -25835,7 +25811,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -25852,17 +25828,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -25872,12 +25848,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -25896,7 +25872,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -25905,19 +25881,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T60" s="7" t="inlineStr">
         <is>
@@ -25926,12 +25902,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 13/02/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -25943,24 +25919,16 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>7206030002</t>
+          <t>7201530004</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>C17A40</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CATHARANTHUS ROSEUS</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -25987,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -25996,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -26017,7 +25985,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -26034,17 +26002,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>7206030005</t>
+          <t>7206020003</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN VINO TINTO</t>
+          <t>CHRYSANTHEMUN PALODOSUM</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -26078,7 +26046,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -26087,7 +26055,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -26108,7 +26076,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -26125,17 +26093,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -26145,12 +26113,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -26169,7 +26137,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -26178,7 +26146,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -26199,7 +26167,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -26216,17 +26184,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>7803250006</t>
+          <t>7904120004</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
+          <t>LECHUGA ROMANA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -26236,12 +26204,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -26260,7 +26228,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -26269,19 +26237,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T64" s="7" t="inlineStr">
         <is>
@@ -26290,12 +26258,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -26307,17 +26275,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>7401740038</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>STACHYS BYZANTINA</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -26327,12 +26295,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -26351,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -26360,7 +26328,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -26381,7 +26349,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -26398,17 +26366,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7401740005</t>
+          <t>7104090001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -26418,12 +26386,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -26442,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -26451,7 +26419,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
@@ -26472,7 +26440,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -26489,17 +26457,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7401250010</t>
+          <t>7905040016</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLLUS</t>
+          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>T22A30</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -26509,12 +26477,12 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -26533,7 +26501,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -26542,19 +26510,19 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>206.67</v>
+        <v>20</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T67" s="7" t="inlineStr">
         <is>
@@ -26563,12 +26531,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -26580,17 +26548,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>C25COLG</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -26600,12 +26568,12 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -26624,7 +26592,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -26633,7 +26601,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -26654,7 +26622,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -26671,17 +26639,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7201350001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>TAGETES PATULA</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -26691,12 +26659,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -26715,7 +26683,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -26724,19 +26692,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T69" s="7" t="inlineStr">
         <is>
@@ -26745,12 +26713,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -26762,24 +26730,32 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7201530003</t>
+          <t>7904120007</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM MIX M10</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr"/>
-      <c r="D70" s="3" t="inlineStr"/>
+          <t>LECHUGA MARAVILLA</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>PACK12</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -26798,7 +26774,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -26807,7 +26783,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -26828,7 +26804,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -26845,17 +26821,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>7401380000</t>
+          <t>7501020003</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>GAZANIA RIGENS (GAZOO)</t>
+          <t>ERICA GRACILIS ROOD</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -26865,12 +26841,12 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -26889,7 +26865,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -26898,19 +26874,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T71" s="7" t="inlineStr">
         <is>
@@ -26919,12 +26895,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -26936,22 +26912,22 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7202290001</t>
+          <t>7206030001</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>LOBELIA ERINUS TRICOLOR</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>3I6LCOLG</t>
+          <t>C18A20</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>ROJO</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
@@ -26980,7 +26956,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -26989,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>20</v>
+        <v>253.33</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T72" s="7" t="inlineStr">
         <is>
@@ -27010,12 +26986,12 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W72" s="4" t="inlineStr">
@@ -27027,17 +27003,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7401740035</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>ANGELONIA ANGUSTIFOLIA</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -27071,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -27080,19 +27056,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -27101,12 +27077,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -27118,17 +27094,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>7401740043</t>
+          <t>7901010005</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>CONVOLVULUS CNEORUM</t>
+          <t>FRESA SAN ANDREAS</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -27138,12 +27114,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -27162,7 +27138,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -27171,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R74" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T74" s="7" t="inlineStr">
         <is>
@@ -27192,12 +27168,12 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W74" s="4" t="inlineStr">
@@ -27209,17 +27185,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -27253,7 +27229,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -27262,7 +27238,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
@@ -27283,7 +27259,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -27300,16 +27276,24 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7201530011</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr"/>
-      <c r="D76" s="3" t="inlineStr"/>
+          <t>FREESIA HYBRIDA</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>M13A25</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -27336,7 +27320,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -27345,19 +27329,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -27366,12 +27350,12 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -27383,17 +27367,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7401740038</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
+          <t>STACHYS BYZANTINA</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -27403,12 +27387,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -27427,7 +27411,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -27436,19 +27420,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -27457,12 +27441,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -27565,17 +27549,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7203280002</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>LANTANA CAMARA COPA</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>C20A50</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -27585,12 +27569,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -27609,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -27618,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -27639,7 +27623,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -27656,17 +27640,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -27676,12 +27660,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -27700,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -27709,19 +27693,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -27730,12 +27714,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -27747,16 +27731,24 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>7201400002</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA UMBRATICOLA</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr"/>
-      <c r="D81" s="3" t="inlineStr"/>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>2I5LA30</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -27783,7 +27775,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M81" s="5" t="n">
         <v>0</v>
@@ -27792,7 +27784,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
@@ -27813,7 +27805,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -27830,17 +27822,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -27850,12 +27842,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -27874,7 +27866,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -27883,16 +27875,16 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>53.33</v>
+        <v>20</v>
       </c>
       <c r="S82" s="5" t="n">
         <v>0</v>
@@ -27909,7 +27901,7 @@
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -27921,17 +27913,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7401740040</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>TECOMARIA CAPENSIS</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -27941,12 +27933,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -27965,7 +27957,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -27974,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -27995,7 +27987,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -28012,17 +28004,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -28032,12 +28024,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -28056,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -28065,19 +28057,19 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T84" s="7" t="inlineStr">
         <is>
@@ -28086,12 +28078,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -28103,24 +28095,32 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>7201530002</t>
+          <t>7803160003</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr"/>
-      <c r="D85" s="3" t="inlineStr"/>
+          <t>MENTHA SATIVA</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>M13A20</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -28169,7 +28169,7 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
@@ -28186,17 +28186,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>7401150001</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA MEZCLA</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -28206,12 +28206,12 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -28230,7 +28230,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -28239,19 +28239,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -28260,12 +28260,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -28277,17 +28277,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>7904120004</t>
+          <t>7401250010</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA</t>
+          <t>DIANTHUS CARYOPHYLLUS</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>T22A30</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -28297,12 +28297,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -28321,7 +28321,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -28330,16 +28330,16 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>393.33</v>
+        <v>206.67</v>
       </c>
       <c r="S87" s="5" t="n">
         <v>30</v>
@@ -28351,12 +28351,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -28368,12 +28368,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>7905040015</t>
+          <t>7206100001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE THAI</t>
+          <t>PRIMULA OBCONICA</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -28388,12 +28388,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M88" s="5" t="n">
         <v>0</v>
@@ -28421,16 +28421,16 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S88" s="5" t="n">
         <v>0</v>
@@ -28447,7 +28447,7 @@
       </c>
       <c r="V88" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W88" s="4" t="inlineStr">
@@ -28459,17 +28459,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>7904120007</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -28479,12 +28479,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M89" s="5" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -28533,7 +28533,7 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -28550,17 +28550,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7905040009</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -28570,12 +28570,12 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M90" s="5" t="n">
         <v>0</v>
@@ -28603,16 +28603,16 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S90" s="5" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
@@ -28641,22 +28641,22 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7206030001</t>
+          <t>7205080001</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>BELLIS PERENNIS</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>C18A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M91" s="5" t="n">
         <v>0</v>
@@ -28694,19 +28694,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>253.33</v>
+        <v>0</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T91" s="7" t="inlineStr">
         <is>
@@ -28715,12 +28715,12 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
@@ -28732,17 +28732,17 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -28752,12 +28752,12 @@
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M92" s="5" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -28823,17 +28823,17 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>T25A20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -28843,12 +28843,12 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M93" s="5" t="n">
         <v>0</v>
@@ -28876,19 +28876,19 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>66.67</v>
+        <v>393.33</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T93" s="7" t="inlineStr">
         <is>
@@ -28897,12 +28897,12 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
@@ -28914,17 +28914,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>C23A30</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -28934,12 +28934,12 @@
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -28958,7 +28958,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0</v>
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
@@ -28988,7 +28988,7 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
@@ -29005,17 +29005,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7202520009</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>SOLANUM PSEUDOCAPSICUM</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -29025,12 +29025,12 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M95" s="5" t="n">
         <v>0</v>
@@ -29058,19 +29058,19 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T95" s="7" t="inlineStr">
         <is>
@@ -29079,12 +29079,12 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
@@ -29096,17 +29096,17 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7401740024</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
+          <t>CAREX COMANS</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -29116,12 +29116,12 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -29140,7 +29140,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M96" s="5" t="n">
         <v>0</v>
@@ -29149,7 +29149,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -29170,7 +29170,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
@@ -7631,17 +7631,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA (HIERBABUENA)</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -7651,88 +7651,88 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>32.37</v>
+        <v>31.46</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.23</v>
+        <v>10.4</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0</v>
+        <v>23.33</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>-13</v>
+        <v>46</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T9" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/02/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>MENTHA SPICATA (HIERBABUENA)</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -7742,71 +7742,71 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>31.46</v>
+        <v>32.37</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.4</v>
+        <v>11.23</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>23.33</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>46</v>
+        <v>-13</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/02/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -9178,17 +9178,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>C17A20</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -9210,37 +9210,37 @@
         <v>15</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>43.78</v>
+        <v>33.96</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>25.28</v>
+        <v>16.35</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>36.67</v>
+        <v>33.33</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>160</v>
+        <v>206.67</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/02/2025</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -9269,17 +9269,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>CALENDULA OFFICINALIS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>C17A20</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -9301,37 +9301,37 @@
         <v>15</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>33.96</v>
+        <v>43.78</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>16.35</v>
+        <v>25.28</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>33.33</v>
+        <v>36.67</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>1.5</v>
+        <v>8.4</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>206.67</v>
+        <v>160</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>30</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Compra 04/02/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -9542,17 +9542,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>7203510008</t>
+          <t>7804140001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>TRIFOLIUM REPENS (TREBOL)</t>
+          <t>LAVANDULA DENTATA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>T17A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -9562,49 +9562,49 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H30" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" s="5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O30" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="P30" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I30" s="4" t="n">
-        <v>34.95</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K30" s="4" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="L30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O30" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P30" s="4" t="n">
-        <v>10</v>
-      </c>
       <c r="Q30" s="4" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>206.67</v>
+        <v>393.33</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -9633,17 +9633,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>7804140001</t>
+          <t>7203510008</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA</t>
+          <t>TRIFOLIUM REPENS (TREBOL)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>T17A20</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -9653,49 +9653,49 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>31.44</v>
+        <v>34.95</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>14.98</v>
+        <v>18.17</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>48.48</v>
+        <v>41.67</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>393.33</v>
+        <v>206.67</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>30</v>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -10361,17 +10361,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7905120000</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZON BUEY</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -10396,13 +10396,13 @@
         <v>12</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>29.88</v>
+        <v>30</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>15.52</v>
+        <v>15.63</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>80</v>
+        <v>37.5</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>0</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: 3 unidades. Stock objetivo: 4 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 98 días.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -10445,24 +10445,24 @@
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7905120000</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>TOMATE CORAZON BUEY</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -10472,12 +10472,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -10487,13 +10487,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>15.63</v>
+        <v>15.52</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>37.5</v>
+        <v>80</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>0</v>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 98 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: 3 unidades. Stock objetivo: 4 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -14073,12 +14073,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7905130003</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -14114,10 +14114,10 @@
         <v>5.54</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0.4</v>
@@ -14126,10 +14126,10 @@
         <v>1.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -14164,12 +14164,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7905130003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>COL BRUSELAS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -14205,10 +14205,10 @@
         <v>5.54</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0.4</v>
@@ -14217,10 +14217,10 @@
         <v>1.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -15893,17 +15893,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7905040001</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO ITALIANO</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -15913,12 +15913,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -15928,13 +15928,13 @@
         <v>4</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>10</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>26.67</v>
+        <v>44.44</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -15946,50 +15946,50 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T34" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7905040001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>PIMIENTO ITALIANO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -16019,10 +16019,10 @@
         <v>4</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>11.4</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>6.48</v>
+        <v>5.17</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>26.67</v>
@@ -16040,7 +16040,7 @@
         <v>11</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>3</v>
@@ -16075,17 +16075,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -16095,12 +16095,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -16110,13 +16110,13 @@
         <v>4</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.21</v>
+        <v>6.48</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>44.44</v>
+        <v>26.67</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -16128,38 +16128,38 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T36" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T36" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -17167,17 +17167,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7803180002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>M14A20</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -17187,88 +17187,88 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>6.99</v>
+        <v>7.98</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T48" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7803180002</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M14A20</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -17278,71 +17278,71 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>7.98</v>
+        <v>6.99</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>4.45</v>
+        <v>3.55</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T49" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -17986,12 +17986,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7901010008</t>
+          <t>7901010007</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
+          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -18042,7 +18042,7 @@
         <v>13</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>3</v>
@@ -18077,17 +18077,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7905130006</t>
+          <t>7901010008</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO</t>
+          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -18112,10 +18112,10 @@
         <v>2</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>4.98</v>
+        <v>5.98</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>2.37</v>
+        <v>3.28</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>13.33</v>
@@ -18133,52 +18133,52 @@
         <v>13</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T58" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T58" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7901010006</t>
+          <t>7905130006</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
+          <t>COLIFLOR ROMANESCO</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -18203,10 +18203,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>5.98</v>
+        <v>4.98</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>3.28</v>
+        <v>2.37</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>13.33</v>
@@ -18224,47 +18224,47 @@
         <v>13</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T59" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7901010007</t>
+          <t>7901010006</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
+          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -18315,7 +18315,7 @@
         <v>13</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>3</v>
@@ -20170,12 +20170,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>7205090001</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>VIOLA CORNUTA</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -20185,7 +20185,7 @@
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
@@ -20226,7 +20226,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
@@ -20317,7 +20317,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -20352,12 +20352,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7205090001</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>VIOLA CORNUTA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -20408,7 +20408,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -20606,17 +20606,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -20626,12 +20626,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -20659,19 +20659,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -20680,12 +20680,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -20697,24 +20697,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7401740040</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>TECOMARIA CAPENSIS</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>2I5LA30</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -20733,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -20742,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -20763,7 +20771,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -20780,24 +20788,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7201530001</t>
+          <t>7804090001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>ALLIUM SCHOENOPRASUM</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>M13A15</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -20816,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -20825,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -20846,7 +20862,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -20863,17 +20879,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7401740020</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>CAREX OSHIMENSIS</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1I6LA30</t>
+          <t>2LA25</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -20883,12 +20899,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -20907,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -20916,7 +20932,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -20937,7 +20953,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -20954,32 +20970,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7201530002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>C16A20</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -20998,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -21007,7 +21015,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -21028,7 +21036,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -21045,17 +21053,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7805110003</t>
+          <t>7401250010</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>SALVIA MYCROFOLIA</t>
+          <t>DIANTHUS CARYOPHYLLUS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>T22A30</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -21065,12 +21073,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -21089,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -21098,16 +21106,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>393.33</v>
+        <v>206.67</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>30</v>
@@ -21119,12 +21127,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -21136,17 +21144,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7206030005</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>CYCLAMEN VINO TINTO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -21156,12 +21164,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -21180,7 +21188,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -21189,7 +21197,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -21210,7 +21218,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -21227,17 +21235,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7904120004</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA</t>
+          <t>LECHUGA ROMANA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -21247,12 +21255,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -21271,7 +21279,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -21280,16 +21288,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>153.33</v>
+        <v>393.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -21301,12 +21309,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -21318,17 +21326,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7401740035</t>
+          <t>7401740044</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ANGELONIA ANGUSTIFOLIA</t>
+          <t>DURANTA REPENS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -21362,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -21371,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -21392,7 +21400,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -21409,12 +21417,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7905040015</t>
+          <t>7206100001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE THAI</t>
+          <t>PRIMULA OBCONICA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -21429,12 +21437,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -21453,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -21462,16 +21470,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>0</v>
@@ -21488,7 +21496,7 @@
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -21500,12 +21508,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7201400002</t>
+          <t>7201530004</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA UMBRATICOLA</t>
+          <t>CATHARANTHUS ROSEUS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -21566,7 +21574,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -21583,17 +21591,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -21603,12 +21611,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -21627,7 +21635,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -21636,7 +21644,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -21657,7 +21665,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -21674,17 +21682,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7401740039</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>PHYLICA ERICOIDES</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -21718,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -21727,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -21748,7 +21756,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -21765,17 +21773,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7206030005</t>
+          <t>7805070001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN VINO TINTO</t>
+          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -21785,12 +21793,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -21809,7 +21817,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -21818,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -21839,7 +21847,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -21856,17 +21864,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7401380000</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>GAZANIA RIGENS (GAZOO)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>T25A20</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -21876,12 +21884,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -21900,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -21909,19 +21917,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -21930,12 +21938,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -21947,17 +21955,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -21967,12 +21975,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -21991,7 +21999,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -22000,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -22021,7 +22029,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -22038,17 +22046,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7401740005</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -22058,12 +22066,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -22082,7 +22090,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -22091,7 +22099,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -22112,7 +22120,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -22129,17 +22137,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -22149,12 +22157,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -22173,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -22182,19 +22190,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>253.33</v>
+        <v>20</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -22203,12 +22211,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -22220,17 +22228,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7905040009</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -22240,12 +22248,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -22264,7 +22272,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -22273,7 +22281,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -22311,17 +22319,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7206030002</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>C17A40</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -22331,12 +22339,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -22355,7 +22363,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -22364,19 +22372,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -22385,12 +22393,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -22402,17 +22410,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7803160003</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
+          <t>MENTHA SATIVA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -22422,12 +22430,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -22446,7 +22454,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -22455,19 +22463,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -22476,12 +22484,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -22493,16 +22501,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7201530003</t>
+          <t>7201050001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM MIX M10</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>BEGONIA SEMPERFLORENS</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>M105A10</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -22529,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -22538,19 +22554,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -22559,12 +22575,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -22576,17 +22592,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7401740043</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CONVOLVULUS CNEORUM</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -22596,12 +22612,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -22620,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -22629,19 +22645,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -22650,12 +22666,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -22667,32 +22683,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7905070001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA FIGUERAS</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>PACK12</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALENDULA OFFICINALIS</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -22711,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -22720,19 +22728,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T25" s="7" t="inlineStr">
         <is>
@@ -22741,12 +22749,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -22758,17 +22766,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7401740020</t>
+          <t>7905070001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CAREX OSHIMENSIS</t>
+          <t>CEBOLLA FIGUERAS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>2LA25</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -22778,12 +22786,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -22802,7 +22810,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -22811,19 +22819,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -22832,12 +22840,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -22849,24 +22857,32 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7201530002</t>
+          <t>7904120007</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
+          <t>LECHUGA MARAVILLA</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>PACK12</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -22885,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -22894,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
@@ -22915,7 +22931,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -22932,17 +22948,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>3LA45</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -22952,12 +22968,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -22976,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -22985,19 +23001,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T28" s="7" t="inlineStr">
         <is>
@@ -23006,12 +23022,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -23023,17 +23039,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>7401740044</t>
+          <t>7501020003</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>DURANTA REPENS</t>
+          <t>ERICA GRACILIS ROOD</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -23043,12 +23059,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -23067,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -23076,7 +23092,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
@@ -23097,7 +23113,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -23114,12 +23130,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>7201050001</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA SEMPERFLORENS</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -23134,12 +23150,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -23158,7 +23174,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -23167,19 +23183,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -23188,12 +23204,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -23205,22 +23221,22 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7206030001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>C18A20</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>ROJO</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -23249,7 +23265,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -23258,16 +23274,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>393.33</v>
+        <v>253.33</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>30</v>
@@ -23279,12 +23295,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -23296,17 +23312,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>7203230000</t>
+          <t>7401740038</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>GERBERA JAMESONII</t>
+          <t>STACHYS BYZANTINA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -23316,12 +23332,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -23355,13 +23371,13 @@
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -23370,12 +23386,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -23387,17 +23403,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>7202520009</t>
+          <t>7205080001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>SOLANUM PSEUDOCAPSICUM</t>
+          <t>BELLIS PERENNIS</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -23431,7 +23447,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -23440,19 +23456,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
@@ -23461,12 +23477,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -23478,17 +23494,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401740024</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>CAREX COMANS</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -23498,12 +23514,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -23522,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -23531,7 +23547,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -23552,7 +23568,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -23569,17 +23585,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -23589,12 +23605,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -23613,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -23622,19 +23638,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T35" s="7" t="inlineStr">
         <is>
@@ -23643,12 +23659,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -23660,17 +23676,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>5LA25</t>
+          <t>C23A30</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -23680,12 +23696,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -23704,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -23713,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
@@ -23734,7 +23750,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -23751,17 +23767,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>7401150001</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA MEZCLA</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -23771,12 +23787,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -23795,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -23804,19 +23820,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -23825,12 +23841,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -23842,24 +23858,16 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7201530001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -23886,7 +23894,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -23895,19 +23903,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T38" s="7" t="inlineStr">
         <is>
@@ -23916,12 +23924,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -23933,24 +23941,32 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>C16A20</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -23969,7 +23985,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -23978,7 +23994,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
@@ -23999,7 +24015,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -24016,17 +24032,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>7401740010</t>
+          <t>7203230000</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+          <t>GERBERA JAMESONII</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -24036,12 +24052,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -24060,7 +24076,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -24069,7 +24085,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
@@ -24107,32 +24123,32 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>7503010004</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN POMPON</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>T23A30</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -24151,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -24160,19 +24176,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>393.33</v>
+        <v>53.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T41" s="7" t="inlineStr">
         <is>
@@ -24181,12 +24197,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/02/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -24198,17 +24214,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>7803250006</t>
+          <t>7805110001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
+          <t>SALVIA FARINACEA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -24242,7 +24258,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -24251,19 +24267,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T42" s="7" t="inlineStr">
         <is>
@@ -24272,12 +24288,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -24289,17 +24305,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>C25COLG</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -24363,7 +24379,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -24380,17 +24396,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>7901010009</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -24400,12 +24416,12 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -24424,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -24433,19 +24449,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -24454,12 +24470,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -24471,16 +24487,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>RANUNCULUS ASIATICUS</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1I6LA20</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -24507,7 +24531,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -24516,19 +24540,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -24537,12 +24561,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -24554,17 +24578,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>7401740039</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PHYLICA ERICOIDES</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -24598,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -24607,7 +24631,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -24628,7 +24652,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -24645,17 +24669,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -24689,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -24698,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -24719,7 +24743,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -24736,17 +24760,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -24780,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -24789,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -24810,7 +24834,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -24827,17 +24851,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7401740035</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>ANGELONIA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>C23A30</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -24847,12 +24871,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -24871,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -24880,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
@@ -24901,7 +24925,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -24918,24 +24942,16 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>M12A20</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYACINTHUS ORIENTALIS</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -24962,7 +24978,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -24971,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -24992,7 +25008,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -25009,17 +25025,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>T25A25</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -25053,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -25062,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>53.33</v>
+        <v>393.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -25083,12 +25099,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -25100,17 +25116,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>7804090001</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ALLIUM SCHOENOPRASUM</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>3LA45</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -25120,12 +25136,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -25144,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -25153,19 +25169,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T52" s="7" t="inlineStr">
         <is>
@@ -25174,12 +25190,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -25191,17 +25207,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7201350001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>TAGETES PATULA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>T25A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -25211,12 +25227,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -25235,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -25244,19 +25260,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -25265,12 +25281,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -25282,17 +25298,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7805070001</t>
+          <t>7401340000</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
+          <t>GAURA LINDHEIMERI</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -25302,12 +25318,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -25326,7 +25342,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -25335,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -25356,7 +25372,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -25373,17 +25389,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7401740010</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -25393,12 +25409,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -25417,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -25426,19 +25442,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -25447,12 +25463,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -25464,17 +25480,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>7401380000</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>GAZANIA RIGENS (GAZOO)</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -25508,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -25517,19 +25533,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -25538,12 +25554,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -25555,32 +25571,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7201400002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>3LA55</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PORTULACA UMBRATICOLA</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -25599,7 +25607,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -25608,7 +25616,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -25629,7 +25637,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -25646,17 +25654,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7202290001</t>
+          <t>7905040016</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>LOBELIA ERINUS TRICOLOR</t>
+          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>3I6LCOLG</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -25666,12 +25674,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -25690,7 +25698,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -25699,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
@@ -25737,17 +25745,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7401340000</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>GAURA LINDHEIMERI</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -25796,13 +25804,13 @@
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -25811,12 +25819,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -25828,17 +25836,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7901010009</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -25872,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -25881,19 +25889,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T60" s="7" t="inlineStr">
         <is>
@@ -25902,12 +25910,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -25919,12 +25927,12 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>7201530004</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CATHARANTHUS ROSEUS</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -25985,7 +25993,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -26002,17 +26010,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>7206020003</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN PALODOSUM</t>
+          <t>MENTHA SPICATA</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -26022,12 +26030,12 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -26046,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -26055,16 +26063,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>393.33</v>
+        <v>153.33</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>30</v>
@@ -26076,12 +26084,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -26093,17 +26101,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -26113,12 +26121,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -26167,7 +26175,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -26184,12 +26192,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>7904120004</t>
+          <t>7104090001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -26204,12 +26212,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -26258,7 +26266,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -26275,17 +26283,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -26295,12 +26303,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -26319,7 +26327,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -26328,7 +26336,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -26349,7 +26357,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -26366,17 +26374,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7104090001</t>
+          <t>7206020003</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>CHRYSANTHEMUN PALODOSUM</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -26386,12 +26394,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -26410,7 +26418,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -26419,7 +26427,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
@@ -26440,7 +26448,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -26457,17 +26465,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7905040016</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -26477,12 +26485,12 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -26501,7 +26509,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -26510,7 +26518,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
@@ -26548,17 +26556,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>C25COLG</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -26568,12 +26576,12 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -26592,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -26601,7 +26609,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -26622,7 +26630,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -26639,17 +26647,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7201350001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>TAGETES PATULA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -26683,7 +26691,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -26692,19 +26700,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T69" s="7" t="inlineStr">
         <is>
@@ -26713,12 +26721,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -26730,17 +26738,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7904120007</t>
+          <t>7201530011</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA</t>
+          <t>FREESIA HYBRIDA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -26750,12 +26758,12 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -26774,7 +26782,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -26783,19 +26791,19 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T70" s="7" t="inlineStr">
         <is>
@@ -26804,12 +26812,12 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
@@ -26821,17 +26829,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>7501020003</t>
+          <t>7202290001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>ERICA GRACILIS ROOD</t>
+          <t>LOBELIA ERINUS TRICOLOR</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>3I6LCOLG</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -26841,12 +26849,12 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -26880,13 +26888,13 @@
         <v>59</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T71" s="7" t="inlineStr">
         <is>
@@ -26895,12 +26903,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -26912,22 +26920,22 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7206030001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>C18A20</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
@@ -26956,7 +26964,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -26965,16 +26973,16 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S72" s="5" t="n">
         <v>30</v>
@@ -26986,12 +26994,12 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W72" s="4" t="inlineStr">
@@ -27003,17 +27011,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7905040015</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>PIMIENTO PICANTE THAI</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -27023,12 +27031,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -27047,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -27056,7 +27064,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
@@ -27094,17 +27102,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>7901010005</t>
+          <t>7203280002</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>FRESA SAN ANDREAS</t>
+          <t>LANTANA CAMARA COPA</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C20A50</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -27114,12 +27122,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -27138,7 +27146,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -27147,19 +27155,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R74" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T74" s="7" t="inlineStr">
         <is>
@@ -27168,12 +27176,12 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W74" s="4" t="inlineStr">
@@ -27185,17 +27193,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7805110003</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>SALVIA MYCROFOLIA</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -27259,7 +27267,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -27276,24 +27284,16 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>7201530011</t>
+          <t>7201530003</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>FREESIA HYBRIDA</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>M13A25</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM MIX M10</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr"/>
+      <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -27320,7 +27320,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -27329,19 +27329,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -27350,12 +27350,12 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -27367,17 +27367,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>7401740038</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>STACHYS BYZANTINA</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>5LA25</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -27387,12 +27387,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -27411,7 +27411,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -27420,7 +27420,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
@@ -27441,7 +27441,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -27458,17 +27458,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>7805110001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>SALVIA FARINACEA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -27478,12 +27478,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -27502,7 +27502,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
@@ -27532,7 +27532,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -27549,17 +27549,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>7203280002</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA COPA</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>C20A50</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -27569,12 +27569,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -27640,17 +27640,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -27660,12 +27660,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -27693,19 +27693,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -27714,12 +27714,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -27731,17 +27731,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -27751,12 +27751,12 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -27790,10 +27790,10 @@
         <v>59</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>393.33</v>
+        <v>253.33</v>
       </c>
       <c r="S81" s="5" t="n">
         <v>30</v>
@@ -27805,12 +27805,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -27822,17 +27822,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7803250006</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -27842,12 +27842,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -27866,7 +27866,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -27875,7 +27875,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
@@ -27913,17 +27913,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7401740040</t>
+          <t>7206030002</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>TECOMARIA CAPENSIS</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>C17A40</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -27933,12 +27933,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -27957,7 +27957,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -27966,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -27987,7 +27987,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -28004,17 +28004,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>T25A20</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -28024,12 +28024,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -28057,19 +28057,19 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>393.33</v>
+        <v>66.67</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T84" s="7" t="inlineStr">
         <is>
@@ -28078,12 +28078,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -28095,17 +28095,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>7803160003</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SATIVA</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -28115,12 +28115,12 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -28139,7 +28139,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -28148,19 +28148,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>393.33</v>
+        <v>100</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -28169,12 +28169,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/02/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -28186,17 +28186,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -28230,7 +28230,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -28239,7 +28239,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
@@ -28260,7 +28260,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -28277,17 +28277,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>7401250010</t>
+          <t>7401740005</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLLUS</t>
+          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>T22A30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -28321,7 +28321,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -28330,16 +28330,16 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>206.67</v>
+        <v>393.33</v>
       </c>
       <c r="S87" s="5" t="n">
         <v>30</v>
@@ -28351,12 +28351,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -28368,17 +28368,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>7206100001</t>
+          <t>7905040009</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA OBCONICA</t>
+          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -28388,12 +28388,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M88" s="5" t="n">
         <v>0</v>
@@ -28421,16 +28421,16 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S88" s="5" t="n">
         <v>0</v>
@@ -28447,7 +28447,7 @@
       </c>
       <c r="V88" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W88" s="4" t="inlineStr">
@@ -28459,17 +28459,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -28479,12 +28479,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="M89" s="5" t="n">
         <v>0</v>
@@ -28512,19 +28512,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T89" s="7" t="inlineStr">
         <is>
@@ -28533,12 +28533,12 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">
@@ -28550,17 +28550,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7202520009</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>SOLANUM PSEUDOCAPSICUM</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -28570,12 +28570,12 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M90" s="5" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T90" s="7" t="inlineStr">
         <is>
@@ -28624,12 +28624,12 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
@@ -28641,17 +28641,17 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7205080001</t>
+          <t>7401150001</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>BELLIS PERENNIS</t>
+          <t>CAMPANULA MEZCLA</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -28661,12 +28661,12 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M91" s="5" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
@@ -28732,32 +28732,32 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7503010004</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>CHRYSANTHEMUN POMPON</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>T23A30</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M92" s="5" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -28823,17 +28823,17 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -28843,12 +28843,12 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M93" s="5" t="n">
         <v>0</v>
@@ -28876,19 +28876,19 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T93" s="7" t="inlineStr">
         <is>
@@ -28897,12 +28897,12 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
@@ -28914,17 +28914,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7901010005</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>FRESA SAN ANDREAS</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -28934,12 +28934,12 @@
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -28958,7 +28958,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0</v>
@@ -28967,19 +28967,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T94" s="7" t="inlineStr">
         <is>
@@ -28988,12 +28988,12 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
@@ -29005,17 +29005,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7401740043</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
+          <t>CONVOLVULUS CNEORUM</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -29025,12 +29025,12 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M95" s="5" t="n">
         <v>0</v>
@@ -29058,19 +29058,19 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T95" s="7" t="inlineStr">
         <is>
@@ -29079,12 +29079,12 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
@@ -29096,17 +29096,17 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7401740024</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>CAREX COMANS</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -29116,12 +29116,12 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -29140,7 +29140,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="4" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M96" s="5" t="n">
         <v>0</v>
@@ -29149,7 +29149,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -29170,7 +29170,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
@@ -7631,17 +7631,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>MENTHA SPICATA (HIERBABUENA)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -7651,88 +7651,88 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>31.46</v>
+        <v>32.37</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.4</v>
+        <v>11.23</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>23.33</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>46</v>
+        <v>-13</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T9" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/02/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA (HIERBABUENA)</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -7742,71 +7742,71 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>32.37</v>
+        <v>31.46</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.23</v>
+        <v>10.4</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0</v>
+        <v>23.33</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>-13</v>
+        <v>46</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T10" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/02/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13527,17 +13527,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7401740015</t>
+          <t>7202520002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ALYSSUM MARITIMUN</t>
+          <t>HYACINTHUS MIX</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M7A15</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -13547,49 +13547,49 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.5</v>
+        <v>8.94</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>14.51</v>
+        <v>2.19</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15</v>
+        <v>17.14</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>193.33</v>
+        <v>393.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -13618,17 +13618,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7202520002</t>
+          <t>7401740015</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS MIX</t>
+          <t>ALYSSUM MARITIMUN</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M7A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -13638,49 +13638,49 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.94</v>
+        <v>22.5</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.19</v>
+        <v>14.51</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>59</v>
-      </c>
       <c r="R9" s="4" t="n">
-        <v>393.33</v>
+        <v>193.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -13692,12 +13692,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/01/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15893,17 +15893,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905040001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>PIMIENTO ITALIANO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -15913,12 +15913,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -15928,13 +15928,13 @@
         <v>4</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>10</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>5.21</v>
+        <v>5.17</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>44.44</v>
+        <v>26.67</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -15946,55 +15946,55 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7905040001</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO ITALIANO</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -16004,12 +16004,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -16019,13 +16019,13 @@
         <v>4</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>10</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>26.67</v>
+        <v>44.44</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -16037,38 +16037,38 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T35" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17167,17 +17167,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7803180002</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M14A20</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -17187,88 +17187,88 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>7.98</v>
+        <v>6.99</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>4.45</v>
+        <v>3.55</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T48" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7803180002</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>M14A20</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -17278,71 +17278,71 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>6.99</v>
+        <v>7.98</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T49" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17986,12 +17986,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7901010007</t>
+          <t>7901010008</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
+          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -18042,7 +18042,7 @@
         <v>13</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>3</v>
@@ -18077,12 +18077,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7901010008</t>
+          <t>7901010007</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
+          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -18133,7 +18133,7 @@
         <v>13</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>3</v>
@@ -18168,17 +18168,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7905130006</t>
+          <t>7901010006</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO</t>
+          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -18203,10 +18203,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>4.98</v>
+        <v>5.98</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>2.37</v>
+        <v>3.28</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>13.33</v>
@@ -18224,52 +18224,52 @@
         <v>13</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T59" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T59" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7901010006</t>
+          <t>7905130006</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
+          <t>COLIFLOR ROMANESCO</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -18294,10 +18294,10 @@
         <v>2</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>5.98</v>
+        <v>4.98</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>3.28</v>
+        <v>2.37</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>13.33</v>
@@ -18315,35 +18315,35 @@
         <v>13</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T60" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -20170,12 +20170,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7205090001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>VIOLA CORNUTA</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -20226,7 +20226,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -20261,12 +20261,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7205090001</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>VIOLA CORNUTA</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
@@ -20317,7 +20317,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -20367,7 +20367,7 @@
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
@@ -20408,7 +20408,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -20606,17 +20606,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7501020003</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>ERICA GRACILIS ROOD</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -20626,12 +20626,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -20659,7 +20659,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
@@ -20680,7 +20680,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -20697,17 +20697,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7401740040</t>
+          <t>7905040016</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>TECOMARIA CAPENSIS</t>
+          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -20717,12 +20717,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -20741,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -20750,19 +20750,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -20771,12 +20771,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -20788,17 +20788,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7804090001</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ALLIUM SCHOENOPRASUM</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -20808,12 +20808,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -20832,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -20841,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -20862,7 +20862,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -20879,17 +20879,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7401740020</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CAREX OSHIMENSIS</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2LA25</t>
+          <t>C23A30</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -20899,12 +20899,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -20932,7 +20932,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -20970,24 +20970,32 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7201530002</t>
+          <t>7805110001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>SALVIA FARINACEA</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>2I5LA40</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -21006,7 +21014,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -21015,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -21036,7 +21044,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -21053,17 +21061,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7401250010</t>
+          <t>7203230000</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLLUS</t>
+          <t>GERBERA JAMESONII</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>T22A30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -21073,12 +21081,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -21097,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -21106,19 +21114,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>206.67</v>
+        <v>20</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -21127,12 +21135,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -21144,17 +21152,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7206030005</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN VINO TINTO</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -21164,12 +21172,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -21218,7 +21226,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -21235,17 +21243,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7904120004</t>
+          <t>7401740044</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA</t>
+          <t>DURANTA REPENS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -21255,12 +21263,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -21279,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -21288,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -21309,7 +21317,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -21326,17 +21334,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7401740044</t>
+          <t>7401740040</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DURANTA REPENS</t>
+          <t>TECOMARIA CAPENSIS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -21370,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -21379,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -21400,7 +21408,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -21417,17 +21425,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7206100001</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA OBCONICA</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>C25COLG</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -21437,12 +21445,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -21461,7 +21469,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -21470,19 +21478,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -21491,12 +21499,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -21508,16 +21516,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7201530004</t>
+          <t>7206100001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>CATHARANTHUS ROSEUS</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
+          <t>PRIMULA OBCONICA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>M105A20</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -21544,7 +21560,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -21553,19 +21569,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -21574,12 +21590,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -21591,17 +21607,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>3LA45</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -21611,12 +21627,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -21635,7 +21651,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -21644,19 +21660,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -21665,12 +21681,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -21682,17 +21698,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7401740039</t>
+          <t>7201530011</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>PHYLICA ERICOIDES</t>
+          <t>FREESIA HYBRIDA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -21702,12 +21718,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -21726,7 +21742,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -21735,19 +21751,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -21756,12 +21772,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -21773,17 +21789,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7805070001</t>
+          <t>7203280002</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
+          <t>LANTANA CAMARA COPA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>C20A50</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -21793,12 +21809,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -21817,7 +21833,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -21826,7 +21842,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -21847,7 +21863,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -21864,17 +21880,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7401380000</t>
+          <t>7805110003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>GAZANIA RIGENS (GAZOO)</t>
+          <t>SALVIA MYCROFOLIA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -21884,12 +21900,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -21908,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -21917,19 +21933,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -21938,12 +21954,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -21955,17 +21971,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7401250010</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>DIANTHUS CARYOPHYLLUS</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>T22A30</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -21975,12 +21991,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -21999,7 +22015,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -22008,16 +22024,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>393.33</v>
+        <v>206.67</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -22029,12 +22045,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -22046,17 +22062,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1I6LA30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -22066,12 +22082,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -22120,7 +22136,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -22137,17 +22153,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -22157,12 +22173,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -22181,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -22190,19 +22206,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -22211,12 +22227,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -22228,17 +22244,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -22248,12 +22264,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -22272,7 +22288,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -22281,16 +22297,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>20</v>
+        <v>53.33</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>0</v>
@@ -22307,7 +22323,7 @@
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 20/02/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -22319,17 +22335,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -22339,12 +22355,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -22363,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -22372,19 +22388,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -22393,12 +22409,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -22410,17 +22426,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7803160003</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SATIVA</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -22430,12 +22446,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -22454,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -22463,16 +22479,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>393.33</v>
+        <v>253.33</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>30</v>
@@ -22484,12 +22500,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -22501,17 +22517,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7201050001</t>
+          <t>7206030005</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA SEMPERFLORENS</t>
+          <t>CYCLAMEN VINO TINTO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -22545,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -22554,19 +22570,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -22575,12 +22591,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -22592,17 +22608,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -22612,12 +22628,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -22636,7 +22652,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -22645,19 +22661,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -22666,12 +22682,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -22683,24 +22699,32 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>TOMATE RAF</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>M105A20</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -22719,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -22728,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T25" s="7" t="inlineStr">
         <is>
@@ -22749,12 +22773,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -22766,17 +22790,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7905070001</t>
+          <t>7401340000</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA FIGUERAS</t>
+          <t>GAURA LINDHEIMERI</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -22786,12 +22810,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -22810,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -22819,19 +22843,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -22840,12 +22864,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -22857,12 +22881,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7904120007</t>
+          <t>7905070001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA</t>
+          <t>CEBOLLA FIGUERAS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -22916,13 +22940,13 @@
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -22931,12 +22955,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -22948,17 +22972,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7202520009</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>SOLANUM PSEUDOCAPSICUM</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -22968,12 +22992,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -22992,7 +23016,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -23001,7 +23025,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -23022,7 +23046,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -23039,17 +23063,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>7501020003</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ERICA GRACILIS ROOD</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -23059,12 +23083,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -23083,7 +23107,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -23092,19 +23116,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -23113,12 +23137,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -23130,12 +23154,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -23150,12 +23174,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -23204,7 +23228,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -23221,22 +23245,22 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>7206030001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>C18A20</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -23265,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -23274,16 +23298,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>30</v>
@@ -23295,12 +23319,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -23312,12 +23336,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>7401740038</t>
+          <t>7401740039</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>STACHYS BYZANTINA</t>
+          <t>PHYLICA ERICOIDES</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -23356,7 +23380,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -23365,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
@@ -23386,7 +23410,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -23403,17 +23427,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>7205080001</t>
+          <t>7401740038</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>BELLIS PERENNIS</t>
+          <t>STACHYS BYZANTINA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -23423,12 +23447,12 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -23447,7 +23471,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -23456,19 +23480,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
@@ -23477,12 +23501,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -23494,32 +23518,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7401740024</t>
+          <t>7201530002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CAREX COMANS</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>2LA20</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -23538,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -23547,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -23568,7 +23584,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -23585,32 +23601,32 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7206030001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>C18A20</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>ROJO</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -23629,7 +23645,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -23638,16 +23654,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>393.33</v>
+        <v>253.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -23659,12 +23675,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -23676,17 +23692,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7401740005</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>C23A30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -23696,12 +23712,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -23720,7 +23736,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -23729,7 +23745,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
@@ -23750,7 +23766,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -23767,17 +23783,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7202290001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>LOBELIA ERINUS TRICOLOR</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>3I6LCOLG</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -23811,7 +23827,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -23820,19 +23836,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -23841,12 +23857,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -23858,24 +23874,32 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>7201530001</t>
+          <t>7401740020</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
+          <t>CAREX OSHIMENSIS</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>2LA25</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -23894,7 +23918,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -23903,7 +23927,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -23924,7 +23948,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -23951,7 +23975,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>5LA25</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -23985,7 +24009,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -23994,7 +24018,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
@@ -24015,7 +24039,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -24032,12 +24056,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>7203230000</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>GERBERA JAMESONII</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -24052,12 +24076,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -24123,17 +24147,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7206030002</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>C17A40</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -24143,12 +24167,12 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -24167,7 +24191,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -24176,19 +24200,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>53.33</v>
+        <v>393.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T41" s="7" t="inlineStr">
         <is>
@@ -24197,12 +24221,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -24214,17 +24238,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>7805110001</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>SALVIA FARINACEA</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -24288,7 +24312,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -24305,17 +24329,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7905040009</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>C25COLG</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -24349,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -24358,19 +24382,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T43" s="7" t="inlineStr">
         <is>
@@ -24379,12 +24403,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -24396,17 +24420,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -24416,12 +24440,12 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -24440,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -24449,19 +24473,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -24470,12 +24494,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -24487,17 +24511,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -24507,12 +24531,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -24531,7 +24555,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -24540,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
@@ -24578,17 +24602,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -24598,12 +24622,12 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -24622,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -24631,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -24652,7 +24676,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -24669,17 +24693,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -24689,12 +24713,12 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -24713,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -24722,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -24743,7 +24767,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -24760,17 +24784,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -24804,7 +24828,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -24813,7 +24837,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -24834,7 +24858,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -24851,17 +24875,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7401740035</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ANGELONIA ANGUSTIFOLIA</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -24871,12 +24895,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -24895,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -24904,19 +24928,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T49" s="7" t="inlineStr">
         <is>
@@ -24925,12 +24949,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -24942,24 +24966,32 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr"/>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>3LA55</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -24978,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -24987,7 +25019,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -25008,7 +25040,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -25025,17 +25057,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>T25A25</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -25045,12 +25077,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -25099,7 +25131,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -25116,17 +25148,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7803250006</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>3LA45</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -25136,12 +25168,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -25160,7 +25192,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -25169,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -25207,17 +25239,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>7201350001</t>
+          <t>7803160003</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>TAGETES PATULA</t>
+          <t>MENTHA SATIVA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -25227,12 +25259,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -25251,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -25260,19 +25292,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -25281,12 +25313,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -25298,17 +25330,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7401340000</t>
+          <t>7201050001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>GAURA LINDHEIMERI</t>
+          <t>BEGONIA SEMPERFLORENS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -25318,12 +25350,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -25342,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -25351,19 +25383,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T54" s="7" t="inlineStr">
         <is>
@@ -25372,12 +25404,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -25389,17 +25421,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7401740010</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -25409,12 +25441,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -25433,7 +25465,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -25442,19 +25474,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -25463,12 +25495,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -25480,17 +25512,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7901010005</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>FRESA SAN ANDREAS</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -25500,12 +25532,12 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -25524,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -25533,19 +25565,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -25554,12 +25586,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -25571,24 +25603,32 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7201400002</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA UMBRATICOLA</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr"/>
-      <c r="D57" s="3" t="inlineStr"/>
+          <t>PELARGONIUM X HORTORUM</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>T25A20</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -25607,7 +25647,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -25616,19 +25656,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>393.33</v>
+        <v>66.67</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T57" s="7" t="inlineStr">
         <is>
@@ -25637,12 +25677,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -25654,17 +25694,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7905040016</t>
+          <t>7904120004</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
+          <t>LECHUGA ROMANA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -25698,7 +25738,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -25707,19 +25747,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -25728,12 +25768,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -25745,17 +25785,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7901010009</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -25765,12 +25805,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -25789,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -25798,16 +25838,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S59" s="5" t="n">
         <v>0</v>
@@ -25824,7 +25864,7 @@
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -25836,17 +25876,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7901010009</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -25856,12 +25896,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -25880,7 +25920,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -25889,19 +25929,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T60" s="7" t="inlineStr">
         <is>
@@ -25910,12 +25950,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -25927,24 +25967,32 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7804090001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr"/>
-      <c r="D61" s="3" t="inlineStr"/>
+          <t>ALLIUM SCHOENOPRASUM</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>M13A15</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -25963,7 +26011,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -25972,7 +26020,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -25993,7 +26041,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -26010,32 +26058,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7201530003</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>M13A25</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM MIX M10</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -26054,7 +26094,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -26063,16 +26103,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>153.33</v>
+        <v>393.33</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>30</v>
@@ -26084,12 +26124,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -26101,17 +26141,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7201350001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>TAGETES PATULA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -26121,12 +26161,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -26145,7 +26185,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -26154,19 +26194,19 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T63" s="7" t="inlineStr">
         <is>
@@ -26175,12 +26215,12 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
@@ -26192,17 +26232,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>7104090001</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -26212,12 +26252,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -26236,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -26245,7 +26285,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
@@ -26266,7 +26306,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -26283,17 +26323,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -26303,12 +26343,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -26357,7 +26397,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -26374,17 +26414,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7206020003</t>
+          <t>7205080001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN PALODOSUM</t>
+          <t>BELLIS PERENNIS</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -26418,7 +26458,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -26427,19 +26467,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T66" s="7" t="inlineStr">
         <is>
@@ -26448,12 +26488,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -26465,17 +26505,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7401150001</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
+          <t>CAMPANULA MEZCLA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -26509,7 +26549,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -26518,16 +26558,16 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S67" s="5" t="n">
         <v>0</v>
@@ -26544,7 +26584,7 @@
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -26556,17 +26596,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -26576,12 +26616,12 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -26600,7 +26640,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -26609,19 +26649,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T68" s="7" t="inlineStr">
         <is>
@@ -26630,12 +26670,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -26647,17 +26687,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>M12A20</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -26667,12 +26707,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -26691,7 +26731,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -26700,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -26721,7 +26761,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -26738,24 +26778,16 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7201530011</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>FREESIA HYBRIDA</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>M13A25</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALENDULA OFFICINALIS</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr"/>
+      <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -26782,7 +26814,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -26791,19 +26823,19 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T70" s="7" t="inlineStr">
         <is>
@@ -26812,12 +26844,12 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
@@ -26829,24 +26861,16 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>7202290001</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>LOBELIA ERINUS TRICOLOR</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>3I6LCOLG</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TAGETES ERECTA</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr"/>
+      <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -26873,7 +26897,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -26882,19 +26906,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T71" s="7" t="inlineStr">
         <is>
@@ -26903,12 +26927,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -26920,17 +26944,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7104090001</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -26940,12 +26964,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -26964,7 +26988,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -26973,7 +26997,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
@@ -26994,7 +27018,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -27011,17 +27035,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7905040015</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE THAI</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -27031,12 +27055,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -27055,7 +27079,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -27064,19 +27088,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -27085,12 +27109,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -27102,24 +27126,16 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>7203280002</t>
+          <t>7201530004</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA COPA</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>C20A50</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CATHARANTHUS ROSEUS</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr"/>
+      <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -27176,7 +27192,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -27193,32 +27209,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7805110003</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>SALVIA MYCROFOLIA</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>2I5LA45</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYACINTHUS ORIENTALIS</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr"/>
+      <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -27237,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -27246,7 +27254,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
@@ -27267,7 +27275,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -27284,24 +27292,32 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>7201530003</t>
+          <t>7401740024</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM MIX M10</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr"/>
-      <c r="D76" s="3" t="inlineStr"/>
+          <t>CAREX COMANS</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>2LA20</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -27320,7 +27336,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -27329,7 +27345,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
@@ -27350,7 +27366,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -27367,17 +27383,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401740043</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>CONVOLVULUS CNEORUM</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>5LA25</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -27387,12 +27403,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -27411,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -27420,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
@@ -27441,7 +27457,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -27458,17 +27474,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7206020003</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>CHRYSANTHEMUN PALODOSUM</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -27502,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -27511,7 +27527,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
@@ -27532,7 +27548,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -27549,17 +27565,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7401740010</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -27569,12 +27585,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -27593,7 +27609,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -27602,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T79" s="7" t="inlineStr">
         <is>
@@ -27623,12 +27639,12 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W79" s="4" t="inlineStr">
@@ -27640,17 +27656,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7905040015</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>PIMIENTO PICANTE THAI</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -27660,12 +27676,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -27684,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -27693,19 +27709,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -27714,12 +27730,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -27731,17 +27747,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7401740035</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>ANGELONIA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -27751,12 +27767,12 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -27790,10 +27806,10 @@
         <v>59</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S81" s="5" t="n">
         <v>30</v>
@@ -27805,12 +27821,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -27822,17 +27838,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7803250006</t>
+          <t>7805070001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
+          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -27866,7 +27882,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -27875,19 +27891,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -27896,12 +27912,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -27913,17 +27929,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7206030002</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>C17A40</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -27933,12 +27949,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -27957,7 +27973,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -27966,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -27987,7 +28003,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -28004,17 +28020,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>T25A20</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -28024,12 +28040,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -28048,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -28057,19 +28073,19 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>66.67</v>
+        <v>393.33</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T84" s="7" t="inlineStr">
         <is>
@@ -28078,12 +28094,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -28095,17 +28111,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -28139,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -28148,19 +28164,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>100</v>
+        <v>393.33</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -28169,12 +28185,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -28186,17 +28202,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -28206,12 +28222,12 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -28230,7 +28246,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -28239,19 +28255,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -28260,12 +28276,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -28277,12 +28293,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>7401740005</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -28321,7 +28337,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -28330,19 +28346,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T87" s="7" t="inlineStr">
         <is>
@@ -28351,12 +28367,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -28368,17 +28384,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>7905040009</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
+          <t>MENTHA SPICATA</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -28388,12 +28404,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -28412,7 +28428,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M88" s="5" t="n">
         <v>0</v>
@@ -28421,19 +28437,19 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>20</v>
+        <v>153.33</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T88" s="7" t="inlineStr">
         <is>
@@ -28442,12 +28458,12 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W88" s="4" t="inlineStr">
@@ -28459,17 +28475,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7401380000</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>GAZANIA RIGENS (GAZOO)</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -28503,7 +28519,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M89" s="5" t="n">
         <v>0</v>
@@ -28512,7 +28528,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -28550,17 +28566,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7202520009</t>
+          <t>7904120007</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>SOLANUM PSEUDOCAPSICUM</t>
+          <t>LECHUGA MARAVILLA</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -28570,12 +28586,12 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -28594,7 +28610,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M90" s="5" t="n">
         <v>0</v>
@@ -28603,7 +28619,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
@@ -28624,7 +28640,7 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
@@ -28641,32 +28657,24 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7401150001</t>
+          <t>7201400002</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA MEZCLA</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PORTULACA UMBRATICOLA</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr"/>
+      <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -28685,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M91" s="5" t="n">
         <v>0</v>
@@ -28694,19 +28702,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T91" s="7" t="inlineStr">
         <is>
@@ -28715,12 +28723,12 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
@@ -28732,32 +28740,24 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>7503010004</t>
+          <t>7201530001</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN POMPON</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>T23A30</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>BLANCO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr"/>
+      <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M92" s="5" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -28823,32 +28823,32 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7503010004</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
+          <t>CHRYSANTHEMUN POMPON</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>T23A30</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M93" s="5" t="n">
         <v>0</v>
@@ -28876,19 +28876,19 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T93" s="7" t="inlineStr">
         <is>
@@ -28897,12 +28897,12 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
@@ -28914,17 +28914,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7901010005</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>FRESA SAN ANDREAS</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -28958,7 +28958,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0</v>
@@ -28967,19 +28967,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T94" s="7" t="inlineStr">
         <is>
@@ -28988,12 +28988,12 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 13/02/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
@@ -29005,17 +29005,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7401740043</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>CONVOLVULUS CNEORUM</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>T25A25</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -29025,12 +29025,12 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M95" s="5" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
@@ -29079,7 +29079,7 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
@@ -29096,17 +29096,17 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -29140,7 +29140,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M96" s="5" t="n">
         <v>0</v>
@@ -29149,7 +29149,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -29170,7 +29170,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
@@ -7631,17 +7631,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA (HIERBABUENA)</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -7651,88 +7651,88 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>32.37</v>
+        <v>31.46</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.23</v>
+        <v>10.4</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0</v>
+        <v>23.33</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>-13</v>
+        <v>46</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T9" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/02/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>MENTHA SPICATA (HIERBABUENA)</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -7742,71 +7742,71 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>31.46</v>
+        <v>32.37</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.4</v>
+        <v>11.23</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>23.33</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>46</v>
+        <v>-13</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/02/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -9178,17 +9178,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>CALENDULA OFFICINALIS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>C17A20</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -9210,37 +9210,37 @@
         <v>15</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>33.96</v>
+        <v>43.78</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>16.35</v>
+        <v>25.28</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>33.33</v>
+        <v>36.67</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.5</v>
+        <v>8.4</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>206.67</v>
+        <v>160</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Compra 04/02/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -9269,17 +9269,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>C17A20</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -9301,37 +9301,37 @@
         <v>15</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>43.78</v>
+        <v>33.96</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>25.28</v>
+        <v>16.35</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>36.67</v>
+        <v>33.33</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>160</v>
+        <v>206.67</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>30</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/02/2025</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -13527,17 +13527,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7202520002</t>
+          <t>7401740015</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS MIX</t>
+          <t>ALYSSUM MARITIMUN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M7A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -13547,49 +13547,49 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>8.94</v>
+        <v>22.5</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.19</v>
+        <v>14.51</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.14</v>
+        <v>15</v>
       </c>
       <c r="L8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>59</v>
-      </c>
       <c r="R8" s="4" t="n">
-        <v>393.33</v>
+        <v>193.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/01/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -13618,17 +13618,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7401740015</t>
+          <t>7202520002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ALYSSUM MARITIMUN</t>
+          <t>HYACINTHUS MIX</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M7A15</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -13638,49 +13638,49 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.5</v>
+        <v>8.94</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>14.51</v>
+        <v>2.19</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15</v>
+        <v>17.14</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>193.33</v>
+        <v>393.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -13692,12 +13692,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15893,17 +15893,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -15913,12 +15913,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -15928,13 +15928,13 @@
         <v>4</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>5.21</v>
+        <v>6.48</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>44.44</v>
+        <v>26.67</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
@@ -15946,55 +15946,55 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -16004,12 +16004,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -16019,13 +16019,13 @@
         <v>4</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>6.48</v>
+        <v>5.21</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>26.67</v>
+        <v>44.44</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -16037,38 +16037,38 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T35" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -18077,17 +18077,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7905130006</t>
+          <t>7901010007</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO</t>
+          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -18112,10 +18112,10 @@
         <v>2</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>4.98</v>
+        <v>5.98</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>2.37</v>
+        <v>3.28</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>13.33</v>
@@ -18133,52 +18133,52 @@
         <v>13</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T58" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T58" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7901010006</t>
+          <t>7905130006</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
+          <t>COLIFLOR ROMANESCO</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -18203,10 +18203,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>5.98</v>
+        <v>4.98</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>3.28</v>
+        <v>2.37</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>13.33</v>
@@ -18224,47 +18224,47 @@
         <v>13</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T59" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7901010007</t>
+          <t>7901010006</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
+          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -18315,7 +18315,7 @@
         <v>13</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>3</v>
@@ -18987,12 +18987,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7205030001</t>
+          <t>7501010001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN MINI</t>
+          <t>CALLUNA TINTADA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -19002,17 +19002,17 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -19043,7 +19043,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0</v>
@@ -19078,32 +19078,32 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7501010001</t>
+          <t>7401250001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA TINTADA</t>
+          <t>DIANTHUS BARBATUS</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>BICOLOR</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -19134,7 +19134,7 @@
         <v>-1</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="4" t="n">
         <v>0</v>
@@ -19169,32 +19169,32 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7401250001</t>
+          <t>7205030001</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS BARBATUS</t>
+          <t>CYCLAMEN MINI</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>BICOLOR</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -19260,17 +19260,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>M14A20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -19301,10 +19301,10 @@
         <v>2.07</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0.1</v>
@@ -19313,55 +19313,55 @@
         <v>0.4</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P71" s="4" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T71" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M14A20</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -19392,10 +19392,10 @@
         <v>2.07</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0.1</v>
@@ -19404,38 +19404,38 @@
         <v>0.4</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T72" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T72" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.89€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W72" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -20185,7 +20185,7 @@
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
@@ -20226,7 +20226,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
@@ -20317,7 +20317,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -20606,17 +20606,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>MENTHA SPICATA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -20626,12 +20626,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -20659,16 +20659,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>393.33</v>
+        <v>153.33</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>30</v>
@@ -20680,12 +20680,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -20697,17 +20697,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7401740043</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>CONVOLVULUS CNEORUM</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -20717,12 +20717,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -20741,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -20771,7 +20771,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -20788,17 +20788,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7901010005</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>FRESA SAN ANDREAS</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -20808,12 +20808,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -20832,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -20841,19 +20841,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -20862,12 +20862,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -20879,17 +20879,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>T25A20</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -20899,12 +20899,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -20932,19 +20932,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>66.67</v>
+        <v>393.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -20953,12 +20953,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -20970,17 +20970,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7904120007</t>
+          <t>7401380000</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA</t>
+          <t>GAZANIA RIGENS (GAZOO)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -20990,12 +20990,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -21014,7 +21014,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -21023,19 +21023,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -21061,32 +21061,32 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7206030001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>C18A20</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>ROJO</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -21114,19 +21114,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>100</v>
+        <v>253.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -21135,12 +21135,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/02/2025</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -21152,17 +21152,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7805110003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
+          <t>SALVIA MYCROFOLIA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -21172,12 +21172,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -21196,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -21205,19 +21205,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
@@ -21226,12 +21226,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -21243,17 +21243,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7904120004</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>LECHUGA ROMANA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>5LA25</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -21263,12 +21263,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -21287,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -21296,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -21317,7 +21317,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -21334,17 +21334,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7805070001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M12A20</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -21354,12 +21354,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -21378,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -21387,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -21508,24 +21508,16 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7206100001</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA OBCONICA</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYACINTHUS ORIENTALIS</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -21552,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -21561,19 +21553,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -21582,12 +21574,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -21599,17 +21591,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7401150001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>CAMPANULA MEZCLA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>C25COLG</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -21619,12 +21611,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -21643,7 +21635,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -21652,19 +21644,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -21673,12 +21665,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -21690,17 +21682,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7401740044</t>
+          <t>7905040016</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DURANTA REPENS</t>
+          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -21710,12 +21702,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -21734,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -21743,19 +21735,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -21764,12 +21756,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -21781,17 +21773,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7401740040</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>TECOMARIA CAPENSIS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -21855,7 +21847,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -21872,17 +21864,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7203230000</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>GERBERA JAMESONII</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -21916,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -21925,19 +21917,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -21946,12 +21938,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -21963,17 +21955,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7905040009</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -21983,12 +21975,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -22007,7 +21999,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -22016,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -22054,17 +22046,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7206100001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>PRIMULA OBCONICA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -22074,12 +22066,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -22098,7 +22090,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -22107,19 +22099,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -22128,12 +22120,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -22145,17 +22137,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>T25A25</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -22165,12 +22157,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -22189,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -22198,7 +22190,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -22219,7 +22211,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -22236,17 +22228,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7401740043</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CONVOLVULUS CNEORUM</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -22280,7 +22272,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -22289,19 +22281,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -22310,12 +22302,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -22327,17 +22319,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C25COLG</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -22401,7 +22393,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -22418,17 +22410,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7401740038</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>STACHYS BYZANTINA</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -22438,12 +22430,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -22462,7 +22454,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -22471,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
@@ -22492,7 +22484,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -22509,17 +22501,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7804090001</t>
+          <t>7202290001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ALLIUM SCHOENOPRASUM</t>
+          <t>LOBELIA ERINUS TRICOLOR</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>3I6LCOLG</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -22529,12 +22521,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -22553,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -22562,19 +22554,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -22583,12 +22575,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -22600,17 +22592,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7803250006</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -22620,12 +22612,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -22644,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -22653,16 +22645,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>0</v>
@@ -22679,7 +22671,7 @@
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -22691,17 +22683,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7202290001</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>LOBELIA ERINUS TRICOLOR</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>3I6LCOLG</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -22711,12 +22703,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -22735,7 +22727,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -22744,7 +22736,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -22782,12 +22774,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -22802,12 +22794,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -22856,7 +22848,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -22873,17 +22865,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7401740040</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>TECOMARIA CAPENSIS</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>5LA25</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -22893,12 +22885,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -22917,7 +22909,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -22926,7 +22918,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
@@ -22947,7 +22939,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -22964,17 +22956,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7401250010</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>DIANTHUS CARYOPHYLLUS</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>T22A30</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -23008,7 +23000,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -23017,19 +23009,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>20</v>
+        <v>206.67</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T28" s="7" t="inlineStr">
         <is>
@@ -23038,12 +23030,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -23055,17 +23047,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7803250006</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -23099,7 +23091,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -23108,19 +23100,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -23129,12 +23121,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -23146,17 +23138,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>7905040015</t>
+          <t>7201350001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE THAI</t>
+          <t>TAGETES PATULA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -23166,12 +23158,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -23237,24 +23229,32 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>5LA30</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -23282,7 +23282,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -23303,7 +23303,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -23320,22 +23320,22 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>7206030001</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>C18A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -23364,7 +23364,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -23373,19 +23373,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>253.33</v>
+        <v>20</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -23394,12 +23394,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -23411,24 +23411,32 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
+          <t>THYMUS VULGARIS COMPACTUS</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>2LA30</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -23447,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -23456,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -23477,7 +23485,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -23494,17 +23502,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7803160003</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SATIVA</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -23514,12 +23522,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -23538,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -23547,19 +23555,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -23568,12 +23576,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -23585,24 +23593,32 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7201530004</t>
+          <t>7501020003</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CATHARANTHUS ROSEUS</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
+          <t>ERICA GRACILIS ROOD</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>M12A15</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -23621,7 +23637,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -23630,7 +23646,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -23651,7 +23667,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -23668,17 +23684,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7205080001</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BELLIS PERENNIS</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -23688,12 +23704,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -23712,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -23721,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>0</v>
+        <v>253.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -23742,12 +23758,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -23759,17 +23775,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>7401740020</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CAREX OSHIMENSIS</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>2LA25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -23779,12 +23795,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -23833,7 +23849,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -23850,17 +23866,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>7203230000</t>
+          <t>7905040009</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>GERBERA JAMESONII</t>
+          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -23870,12 +23886,12 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -23894,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -23903,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -23941,17 +23957,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -23961,12 +23977,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -23985,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -23994,19 +24010,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -24015,12 +24031,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -24032,17 +24048,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>7905070001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA FIGUERAS</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -24052,12 +24068,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -24076,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -24085,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -24106,12 +24122,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -24123,24 +24139,16 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>1I6LA30</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALENDULA OFFICINALIS</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -24167,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -24176,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -24197,7 +24205,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -24214,24 +24222,32 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>7201400002</t>
+          <t>7104090001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA UMBRATICOLA</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>PACK6</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -24250,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -24259,7 +24275,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
@@ -24280,7 +24296,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -24297,17 +24313,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>7401740005</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -24317,12 +24333,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -24341,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -24350,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -24371,7 +24387,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -24388,17 +24404,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>7805070001</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -24432,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -24441,19 +24457,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>393.33</v>
+        <v>53.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -24462,12 +24478,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/02/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -24479,17 +24495,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>7501020003</t>
+          <t>7202520009</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ERICA GRACILIS ROOD</t>
+          <t>SOLANUM PSEUDOCAPSICUM</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -24499,12 +24515,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -24523,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -24532,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
@@ -24553,7 +24569,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -24570,16 +24586,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7205080001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
+          <t>BELLIS PERENNIS</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>M9A15</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -24606,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -24615,19 +24639,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T46" s="7" t="inlineStr">
         <is>
@@ -24636,12 +24660,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -24653,17 +24677,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7401740038</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
+          <t>STACHYS BYZANTINA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -24673,12 +24697,12 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -24697,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -24706,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -24727,7 +24751,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -24744,17 +24768,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7401740010</t>
+          <t>7401740044</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+          <t>DURANTA REPENS</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -24788,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -24797,19 +24821,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -24818,12 +24842,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -24835,17 +24859,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -24855,12 +24879,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -24879,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -24888,19 +24912,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T49" s="7" t="inlineStr">
         <is>
@@ -24909,12 +24933,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -24926,17 +24950,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>7202520009</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>SOLANUM PSEUDOCAPSICUM</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -24946,12 +24970,12 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -24970,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -24979,7 +25003,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -25000,7 +25024,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -25017,32 +25041,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>7401380000</t>
+          <t>7201530004</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>GAZANIA RIGENS (GAZOO)</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>1I6LA20</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CATHARANTHUS ROSEUS</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -25061,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -25070,19 +25086,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -25091,12 +25107,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -25108,17 +25124,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7905070001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
+          <t>CEBOLLA FIGUERAS</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -25128,12 +25144,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -25152,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -25161,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -25199,17 +25215,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -25243,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -25252,16 +25268,16 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>153.33</v>
+        <v>393.33</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>30</v>
@@ -25273,12 +25289,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -25290,17 +25306,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7203280002</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>LANTANA CAMARA COPA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>C20A50</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -25310,12 +25326,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -25334,7 +25350,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -25343,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -25364,7 +25380,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -25381,17 +25397,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7805110001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>SALVIA FARINACEA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -25401,12 +25417,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -25425,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -25434,19 +25450,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -25455,12 +25471,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -25472,17 +25488,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>7805110001</t>
+          <t>7206030005</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>SALVIA FARINACEA</t>
+          <t>CYCLAMEN VINO TINTO</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -25492,12 +25508,12 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -25516,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -25525,7 +25541,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -25546,7 +25562,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -25563,32 +25579,32 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7503010004</t>
+          <t>7804090001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN POMPON</t>
+          <t>ALLIUM SCHOENOPRASUM</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>T23A30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -25607,7 +25623,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -25616,7 +25632,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -25637,7 +25653,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -25745,17 +25761,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7201050001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>BEGONIA SEMPERFLORENS</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -25765,12 +25781,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -25789,7 +25805,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -25798,19 +25814,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -25819,12 +25835,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -25836,24 +25852,16 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7201530001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>5LA30</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -25880,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -25889,7 +25897,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
@@ -25910,7 +25918,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -25927,32 +25935,24 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>7901010005</t>
+          <t>7201400002</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>FRESA SAN ANDREAS</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>M105A10</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PORTULACA UMBRATICOLA</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -25971,7 +25971,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -25980,19 +25980,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -26001,12 +26001,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -26018,17 +26018,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>3LA45</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -26038,12 +26038,12 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -26071,19 +26071,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T62" s="7" t="inlineStr">
         <is>
@@ -26092,12 +26092,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -26109,17 +26109,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7401740005</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -26129,12 +26129,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -26153,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -26162,7 +26162,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -26183,7 +26183,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -26200,17 +26200,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>C23A30</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -26220,12 +26220,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -26274,7 +26274,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -26291,17 +26291,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -26311,12 +26311,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -26335,7 +26335,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -26344,19 +26344,19 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T65" s="7" t="inlineStr">
         <is>
@@ -26365,12 +26365,12 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
@@ -26382,17 +26382,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7201530011</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>FREESIA HYBRIDA</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>C23A30</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -26435,19 +26435,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T66" s="7" t="inlineStr">
         <is>
@@ -26456,12 +26456,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -26473,24 +26473,16 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7201350001</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>TAGETES PATULA</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>M105A10</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TAGETES ERECTA</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr"/>
+      <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -26517,7 +26509,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -26526,19 +26518,19 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T67" s="7" t="inlineStr">
         <is>
@@ -26547,12 +26539,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -26564,32 +26556,32 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7206020003</t>
+          <t>7503010004</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN PALODOSUM</t>
+          <t>CHRYSANTHEMUN POMPON</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>T23A30</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -26608,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -26617,7 +26609,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -26638,7 +26630,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -26655,17 +26647,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7206030002</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>C17A40</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -26699,7 +26691,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -26708,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -26729,7 +26721,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -26746,17 +26738,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -26766,12 +26758,12 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -26790,7 +26782,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -26799,7 +26791,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -26820,7 +26812,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -26837,17 +26829,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>7805110003</t>
+          <t>7401740024</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>SALVIA MYCROFOLIA</t>
+          <t>CAREX COMANS</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -26857,12 +26849,12 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -26881,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -26890,7 +26882,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -26911,7 +26903,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -26928,17 +26920,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7401250010</t>
+          <t>7206030002</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLLUS</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>T22A30</t>
+          <t>C17A40</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -26948,12 +26940,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -26972,7 +26964,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -26981,16 +26973,16 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>206.67</v>
+        <v>393.33</v>
       </c>
       <c r="S72" s="5" t="n">
         <v>30</v>
@@ -27002,12 +26994,12 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W72" s="4" t="inlineStr">
@@ -27019,24 +27011,32 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7201530003</t>
+          <t>7901010009</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM MIX M10</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr"/>
-      <c r="D73" s="3" t="inlineStr"/>
+          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>M105A10</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -27064,19 +27064,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -27085,12 +27085,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -27102,17 +27102,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>7901010009</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -27122,12 +27122,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -27146,7 +27146,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -27155,7 +27155,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
@@ -27193,16 +27193,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7201530001</t>
+          <t>7201530011</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr"/>
-      <c r="D75" s="3" t="inlineStr"/>
+          <t>FREESIA HYBRIDA</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>M13A25</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -27229,7 +27237,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -27238,19 +27246,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -27259,12 +27267,12 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
@@ -27276,17 +27284,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>T25A25</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -27296,12 +27304,12 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -27320,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -27329,7 +27337,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
@@ -27350,7 +27358,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -27367,17 +27375,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>7401740039</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>PHYLICA ERICOIDES</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -27387,12 +27395,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -27411,7 +27419,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -27420,7 +27428,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
@@ -27441,7 +27449,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -27458,17 +27466,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>7905040016</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -27478,12 +27486,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -27502,7 +27510,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -27511,19 +27519,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T78" s="7" t="inlineStr">
         <is>
@@ -27532,12 +27540,12 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
@@ -27549,17 +27557,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -27569,12 +27577,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -27593,7 +27601,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -27602,7 +27610,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -27623,7 +27631,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -27640,17 +27648,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7803160003</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>MENTHA SATIVA</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>3LA45</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -27660,12 +27668,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -27684,7 +27692,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -27693,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -27714,12 +27722,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -27731,17 +27739,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -27751,12 +27759,12 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -27775,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M81" s="5" t="n">
         <v>0</v>
@@ -27784,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
@@ -27805,7 +27813,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -27822,17 +27830,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7104090001</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -27842,12 +27850,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -27866,7 +27874,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -27875,19 +27883,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -27896,12 +27904,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -27913,32 +27921,24 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7201530003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>PACK6</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM MIX M10</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr"/>
+      <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -27957,7 +27957,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -27966,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -27987,7 +27987,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -28004,17 +28004,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>7904120004</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -28024,12 +28024,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -28057,7 +28057,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
@@ -28078,7 +28078,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -28095,17 +28095,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -28115,12 +28115,12 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -28139,7 +28139,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -28148,19 +28148,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>393.33</v>
+        <v>100</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -28169,12 +28169,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/02/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -28186,17 +28186,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>7401740024</t>
+          <t>7206020003</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>CAREX COMANS</t>
+          <t>CHRYSANTHEMUN PALODOSUM</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -28206,12 +28206,12 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -28230,7 +28230,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -28239,7 +28239,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
@@ -28260,7 +28260,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -28277,17 +28277,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>7401340000</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>GAURA LINDHEIMERI</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -28297,12 +28297,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -28321,7 +28321,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
@@ -28351,7 +28351,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -28368,17 +28368,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>7203280002</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA COPA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>C20A50</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M88" s="5" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -28442,7 +28442,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -28459,17 +28459,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>T25A20</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -28479,12 +28479,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M89" s="5" t="n">
         <v>0</v>
@@ -28512,19 +28512,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>20</v>
+        <v>66.67</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T89" s="7" t="inlineStr">
         <is>
@@ -28533,12 +28533,12 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">
@@ -28550,17 +28550,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7905040015</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>PIMIENTO PICANTE THAI</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -28570,12 +28570,12 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M90" s="5" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
@@ -28641,17 +28641,17 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7401740039</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>PHYLICA ERICOIDES</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -28661,12 +28661,12 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M91" s="5" t="n">
         <v>0</v>
@@ -28694,16 +28694,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S91" s="5" t="n">
         <v>30</v>
@@ -28715,12 +28715,12 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
@@ -28732,17 +28732,17 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>7206030005</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN VINO TINTO</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M92" s="5" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -28823,17 +28823,17 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>7201050001</t>
+          <t>7401340000</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA SEMPERFLORENS</t>
+          <t>GAURA LINDHEIMERI</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -28843,12 +28843,12 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M93" s="5" t="n">
         <v>0</v>
@@ -28876,19 +28876,19 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T93" s="7" t="inlineStr">
         <is>
@@ -28897,12 +28897,12 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
@@ -28914,17 +28914,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7401150001</t>
+          <t>7401740010</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA MEZCLA</t>
+          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -28958,7 +28958,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0</v>
@@ -28967,16 +28967,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S94" s="5" t="n">
         <v>0</v>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
@@ -29005,17 +29005,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7904120007</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>LECHUGA MARAVILLA</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -29025,12 +29025,12 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M95" s="5" t="n">
         <v>0</v>
@@ -29058,19 +29058,19 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T95" s="7" t="inlineStr">
         <is>
@@ -29079,12 +29079,12 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
@@ -29096,17 +29096,17 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7401740020</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>CAREX OSHIMENSIS</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>2LA25</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -29116,12 +29116,12 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -29140,7 +29140,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M96" s="5" t="n">
         <v>0</v>
@@ -29149,19 +29149,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q96" s="4" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="R96" s="4" t="n">
-        <v>53.33</v>
+        <v>393.33</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T96" s="7" t="inlineStr">
         <is>
@@ -29170,12 +29170,12 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W96" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
@@ -10361,17 +10361,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7905120000</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>TOMATE CORAZON BUEY</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -10396,13 +10396,13 @@
         <v>12</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>15.63</v>
+        <v>15.52</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>37.5</v>
+        <v>80</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>0</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 98 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: 3 unidades. Stock objetivo: 4 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -10445,24 +10445,24 @@
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>7905120000</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>TOMATE CORAZON BUEY</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -10472,12 +10472,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -10487,13 +10487,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>29.88</v>
+        <v>30</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>15.52</v>
+        <v>15.63</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>80</v>
+        <v>37.5</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>0</v>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: 3 unidades. Stock objetivo: 4 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 98 días.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -13527,17 +13527,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7401740015</t>
+          <t>7202520002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ALYSSUM MARITIMUN</t>
+          <t>HYACINTHUS MIX</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M7A15</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -13547,49 +13547,49 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.5</v>
+        <v>8.94</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>14.51</v>
+        <v>2.19</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15</v>
+        <v>17.14</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>193.33</v>
+        <v>393.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -13618,17 +13618,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7202520002</t>
+          <t>7401740015</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS MIX</t>
+          <t>ALYSSUM MARITIMUN</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M7A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -13638,49 +13638,49 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.94</v>
+        <v>22.5</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.19</v>
+        <v>14.51</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>59</v>
-      </c>
       <c r="R9" s="4" t="n">
-        <v>393.33</v>
+        <v>193.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -13692,12 +13692,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/01/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -14073,12 +14073,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7905130003</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -14114,10 +14114,10 @@
         <v>5.54</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0.4</v>
@@ -14126,10 +14126,10 @@
         <v>1.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -14164,12 +14164,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7905130003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>COL BRUSELAS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -14205,10 +14205,10 @@
         <v>5.54</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0.4</v>
@@ -14217,10 +14217,10 @@
         <v>1.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -15893,12 +15893,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7905040001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>PIMIENTO ITALIANO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -15928,10 +15928,10 @@
         <v>4</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>11.4</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>6.48</v>
+        <v>5.17</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>26.67</v>
@@ -15949,7 +15949,7 @@
         <v>11</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>3</v>
@@ -15984,17 +15984,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -16004,12 +16004,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -16019,13 +16019,13 @@
         <v>4</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.21</v>
+        <v>6.48</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>44.44</v>
+        <v>26.67</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -16037,55 +16037,55 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T35" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7905040001</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO ITALIANO</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -16095,12 +16095,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -16110,13 +16110,13 @@
         <v>4</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>10</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>26.67</v>
+        <v>44.44</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -16128,38 +16128,38 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17167,17 +17167,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7803180002</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M14A20</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -17187,88 +17187,88 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>7.98</v>
+        <v>6.99</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>4.45</v>
+        <v>3.55</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T48" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7803180002</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>M14A20</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -17278,71 +17278,71 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>6.99</v>
+        <v>7.98</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T49" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17986,17 +17986,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7901010008</t>
+          <t>7905130006</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
+          <t>COLIFLOR ROMANESCO</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -18021,10 +18021,10 @@
         <v>2</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>5.98</v>
+        <v>4.98</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>3.28</v>
+        <v>2.37</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>13.33</v>
@@ -18042,47 +18042,47 @@
         <v>13</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T57" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7901010007</t>
+          <t>7901010008</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
+          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -18133,7 +18133,7 @@
         <v>13</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>3</v>
@@ -18168,17 +18168,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7905130006</t>
+          <t>7901010006</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO</t>
+          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -18203,10 +18203,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>4.98</v>
+        <v>5.98</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>2.37</v>
+        <v>3.28</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>13.33</v>
@@ -18224,47 +18224,47 @@
         <v>13</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T59" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T59" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7901010006</t>
+          <t>7901010007</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
+          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -18315,7 +18315,7 @@
         <v>13</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>3</v>
@@ -18987,12 +18987,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7501010001</t>
+          <t>7205030001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA TINTADA</t>
+          <t>CYCLAMEN MINI</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -19002,17 +19002,17 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -19043,7 +19043,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0</v>
@@ -19169,12 +19169,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7205030001</t>
+          <t>7501010001</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN MINI</t>
+          <t>CALLUNA TINTADA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -19184,17 +19184,17 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -19225,7 +19225,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q70" s="4" t="n">
         <v>0</v>
@@ -19260,17 +19260,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M14A20</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -19301,10 +19301,10 @@
         <v>2.07</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0.1</v>
@@ -19313,55 +19313,55 @@
         <v>0.4</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P71" s="4" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T71" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T71" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.89€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>M14A20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -19392,10 +19392,10 @@
         <v>2.07</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0.1</v>
@@ -19404,38 +19404,38 @@
         <v>0.4</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T72" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W72" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -20261,12 +20261,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7205090001</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>VIOLA CORNUTA</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -20317,7 +20317,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -20352,12 +20352,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7205090001</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>VIOLA CORNUTA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -20408,7 +20408,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -20606,17 +20606,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7202290001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA</t>
+          <t>LOBELIA ERINUS TRICOLOR</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>3I6LCOLG</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -20626,12 +20626,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -20659,19 +20659,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>153.33</v>
+        <v>20</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -20680,12 +20680,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -20697,17 +20697,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7401740043</t>
+          <t>7401740040</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CONVOLVULUS CNEORUM</t>
+          <t>TECOMARIA CAPENSIS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -20741,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -20771,7 +20771,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -20788,17 +20788,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7901010005</t>
+          <t>7401340000</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>FRESA SAN ANDREAS</t>
+          <t>GAURA LINDHEIMERI</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -20808,12 +20808,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -20832,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -20841,19 +20841,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -20862,12 +20862,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -20879,17 +20879,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7904120004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>LECHUGA ROMANA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -20899,12 +20899,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -20932,7 +20932,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -20970,17 +20970,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7401380000</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>GAZANIA RIGENS (GAZOO)</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -20990,12 +20990,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -21014,7 +21014,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -21023,19 +21023,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -21061,32 +21061,32 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7206030001</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>C18A20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -21152,17 +21152,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7805110003</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SALVIA MYCROFOLIA</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -21196,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -21205,19 +21205,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>393.33</v>
+        <v>53.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
@@ -21226,12 +21226,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/02/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -21243,17 +21243,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7904120004</t>
+          <t>7803250006</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA</t>
+          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -21263,12 +21263,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -21287,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -21296,19 +21296,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -21317,12 +21317,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -21334,17 +21334,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7805070001</t>
+          <t>7104090001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -21354,12 +21354,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -21378,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -21387,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -21425,16 +21425,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7201530002</t>
+          <t>7202520009</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
+          <t>SOLANUM PSEUDOCAPSICUM</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>M13A25</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -21461,7 +21469,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -21470,7 +21478,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -21491,7 +21499,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -21508,16 +21516,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7201350001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
+          <t>TAGETES PATULA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>M105A10</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -21544,7 +21560,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -21553,19 +21569,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -21574,12 +21590,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -21591,17 +21607,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7401150001</t>
+          <t>7401740010</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA MEZCLA</t>
+          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -21635,7 +21651,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -21644,16 +21660,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S13" s="5" t="n">
         <v>0</v>
@@ -21670,7 +21686,7 @@
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -21682,12 +21698,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7905040016</t>
+          <t>7206100001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
+          <t>PRIMULA OBCONICA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -21702,12 +21718,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -21726,7 +21742,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -21735,16 +21751,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>0</v>
@@ -21761,7 +21777,7 @@
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -21773,17 +21789,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7401740040</t>
+          <t>7401740044</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TECOMARIA CAPENSIS</t>
+          <t>DURANTA REPENS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -21817,7 +21833,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -21826,7 +21842,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -21847,7 +21863,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -21864,24 +21880,16 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7203230000</t>
+          <t>7201400002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>GERBERA JAMESONII</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>1I6LA20</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PORTULACA UMBRATICOLA</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -21908,7 +21916,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -21917,19 +21925,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -21938,12 +21946,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -21955,17 +21963,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7205080001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>BELLIS PERENNIS</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -21999,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -22008,16 +22016,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>0</v>
@@ -22034,7 +22042,7 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -22046,17 +22054,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7206100001</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA OBCONICA</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -22066,12 +22074,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -22090,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -22099,16 +22107,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>0</v>
@@ -22125,7 +22133,7 @@
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -22137,17 +22145,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>T25A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -22157,12 +22165,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -22181,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -22190,7 +22198,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -22211,7 +22219,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -22228,17 +22236,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>5LA25</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -22248,12 +22256,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -22272,7 +22280,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -22281,19 +22289,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -22302,12 +22310,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -22319,17 +22327,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>C25COLG</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -22339,12 +22347,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -22363,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -22372,7 +22380,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -22393,7 +22401,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -22410,17 +22418,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -22430,12 +22438,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -22454,7 +22462,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -22463,19 +22471,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -22484,12 +22492,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -22501,17 +22509,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7202290001</t>
+          <t>7201530011</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LOBELIA ERINUS TRICOLOR</t>
+          <t>FREESIA HYBRIDA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>3I6LCOLG</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -22545,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -22554,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
@@ -22592,17 +22600,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -22612,12 +22620,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -22636,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -22645,19 +22653,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -22666,12 +22674,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -22683,12 +22691,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7203230000</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
+          <t>GERBERA JAMESONII</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -22703,12 +22711,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -22774,17 +22782,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7805070001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -22794,12 +22802,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -22818,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -22827,7 +22835,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
@@ -22848,7 +22856,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -22865,17 +22873,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>5LA25</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -22909,7 +22917,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -22918,7 +22926,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
@@ -22939,7 +22947,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -22956,17 +22964,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>7401250010</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLLUS</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>T22A30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -22976,12 +22984,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -23000,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -23009,16 +23017,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>206.67</v>
+        <v>393.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>30</v>
@@ -23030,12 +23038,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -23047,17 +23055,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>7803250006</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -23067,12 +23075,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -23091,7 +23099,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -23100,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S29" s="5" t="n">
         <v>0</v>
@@ -23126,7 +23134,7 @@
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -23138,17 +23146,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>7201350001</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>TAGETES PATULA</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -23158,12 +23166,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -23182,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -23191,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
@@ -23229,17 +23237,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7501020003</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>ERICA GRACILIS ROOD</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -23249,12 +23257,12 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -23273,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -23282,7 +23290,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -23303,7 +23311,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -23320,12 +23328,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7401150001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
+          <t>CAMPANULA MEZCLA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -23340,12 +23348,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -23364,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -23373,16 +23381,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>0</v>
@@ -23399,7 +23407,7 @@
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -23411,17 +23419,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -23455,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -23464,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -23485,7 +23493,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -23502,32 +23510,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7201530003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM MIX M10</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -23555,19 +23555,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -23576,12 +23576,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -23593,17 +23593,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7501020003</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ERICA GRACILIS ROOD</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -23613,12 +23613,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -23637,7 +23637,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -23646,7 +23646,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -23667,7 +23667,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -23684,17 +23684,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7803160003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>MENTHA SATIVA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -23704,12 +23704,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -23758,12 +23758,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -23775,17 +23775,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7401740039</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>PHYLICA ERICOIDES</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -23795,12 +23795,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -23849,7 +23849,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -23866,17 +23866,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>7905040009</t>
+          <t>7401740035</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
+          <t>ANGELONIA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -23886,12 +23886,12 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -23919,19 +23919,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T38" s="7" t="inlineStr">
         <is>
@@ -23940,12 +23940,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -23957,17 +23957,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>C23A30</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -23977,12 +23977,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -24010,19 +24010,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -24031,12 +24031,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -24048,17 +24048,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -24068,12 +24068,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
@@ -24122,7 +24122,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -24139,12 +24139,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201530002</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -24222,17 +24222,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>7104090001</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -24242,12 +24242,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -24275,7 +24275,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
@@ -24296,7 +24296,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -24313,32 +24313,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>M13A10</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALENDULA OFFICINALIS</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -24357,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -24366,7 +24358,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -24387,7 +24379,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -24404,12 +24396,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -24424,12 +24416,12 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -24448,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -24457,19 +24449,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>53.33</v>
+        <v>393.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -24478,12 +24470,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -24495,12 +24487,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>7202520009</t>
+          <t>7206030005</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>SOLANUM PSEUDOCAPSICUM</t>
+          <t>CYCLAMEN VINO TINTO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -24539,7 +24531,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -24548,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
@@ -24569,7 +24561,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -24586,17 +24578,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>7205080001</t>
+          <t>7401740038</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>BELLIS PERENNIS</t>
+          <t>STACHYS BYZANTINA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -24606,12 +24598,12 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -24630,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -24639,19 +24631,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T46" s="7" t="inlineStr">
         <is>
@@ -24660,12 +24652,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -24677,17 +24669,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>7401740038</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>STACHYS BYZANTINA</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -24697,12 +24689,12 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -24736,13 +24728,13 @@
         <v>59</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T47" s="7" t="inlineStr">
         <is>
@@ -24751,12 +24743,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -24768,17 +24760,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7401740044</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>DURANTA REPENS</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -24788,12 +24780,12 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -24812,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -24821,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -24842,7 +24834,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -24859,17 +24851,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7805110003</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>SALVIA MYCROFOLIA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -24879,12 +24871,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -24903,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -24912,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
@@ -24933,7 +24925,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -24950,17 +24942,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7901010005</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>FRESA SAN ANDREAS</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -24970,12 +24962,12 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -24994,7 +24986,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -25003,19 +24995,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T50" s="7" t="inlineStr">
         <is>
@@ -25024,12 +25016,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -25041,24 +25033,32 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>7201530004</t>
+          <t>7503010004</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CATHARANTHUS ROSEUS</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr"/>
+          <t>CHRYSANTHEMUN POMPON</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>T23A30</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>BLANCO</t>
+        </is>
+      </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
@@ -25107,7 +25107,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -25124,17 +25124,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>7905070001</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA FIGUERAS</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -25144,12 +25144,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -25177,19 +25177,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T52" s="7" t="inlineStr">
         <is>
@@ -25198,12 +25198,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -25215,17 +25215,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>T25A20</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -25235,12 +25235,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -25268,19 +25268,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>393.33</v>
+        <v>66.67</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -25289,12 +25289,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -25306,24 +25306,16 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7203280002</t>
+          <t>7201530004</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA COPA</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>C20A50</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CATHARANTHUS ROSEUS</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -25380,7 +25372,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -25397,17 +25389,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7805110001</t>
+          <t>7905040015</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>SALVIA FARINACEA</t>
+          <t>PIMIENTO PICANTE THAI</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -25417,12 +25409,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -25441,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -25450,19 +25442,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -25471,12 +25463,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -25488,17 +25480,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>7206030005</t>
+          <t>7203280002</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN VINO TINTO</t>
+          <t>LANTANA CAMARA COPA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>C20A50</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -25532,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -25541,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -25562,7 +25554,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -25579,17 +25571,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7804090001</t>
+          <t>7206030002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ALLIUM SCHOENOPRASUM</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>C17A40</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -25599,12 +25591,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -25623,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -25632,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -25653,7 +25645,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -25670,32 +25662,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7401740035</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>ANGELONIA ANGUSTIFOLIA</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>2I5LA40</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TAGETES ERECTA</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -25714,7 +25698,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -25723,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
@@ -25744,7 +25728,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -25761,22 +25745,22 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7201050001</t>
+          <t>7206030001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA SEMPERFLORENS</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C18A20</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>ROJO</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
@@ -25805,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -25814,19 +25798,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>20</v>
+        <v>253.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -25835,12 +25819,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -25852,24 +25836,32 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7201530001</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr"/>
-      <c r="D60" s="3" t="inlineStr"/>
+          <t>FRAGARIA ANANASSA</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>C25COLG</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -25888,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -25897,7 +25889,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
@@ -25918,7 +25910,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -25935,24 +25927,32 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>7201400002</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA UMBRATICOLA</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr"/>
-      <c r="D61" s="3" t="inlineStr"/>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>C17A25</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -25971,7 +25971,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -25980,19 +25980,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -26001,12 +26001,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -26018,17 +26018,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>3LA45</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -26038,12 +26038,12 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -26109,17 +26109,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>7401740005</t>
+          <t>7805110001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
+          <t>SALVIA FARINACEA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -26129,12 +26129,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -26153,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -26162,7 +26162,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -26183,7 +26183,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -26200,17 +26200,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -26274,7 +26274,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -26291,17 +26291,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7904120007</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>LECHUGA MARAVILLA</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -26311,12 +26311,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -26335,7 +26335,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -26344,7 +26344,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -26365,7 +26365,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -26382,24 +26382,16 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7201530001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>C23A30</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr"/>
+      <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -26426,7 +26418,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -26435,7 +26427,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
@@ -26456,7 +26448,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -26473,24 +26465,32 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7901010009</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr"/>
-      <c r="D67" s="3" t="inlineStr"/>
+          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>M105A10</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -26509,7 +26509,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -26518,19 +26518,19 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T67" s="7" t="inlineStr">
         <is>
@@ -26539,12 +26539,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -26556,32 +26556,32 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7503010004</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN POMPON</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>T23A30</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -26600,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -26609,7 +26609,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -26630,7 +26630,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -26647,17 +26647,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7401740043</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>CONVOLVULUS CNEORUM</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -26667,12 +26667,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -26691,7 +26691,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -26700,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -26721,7 +26721,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -26738,17 +26738,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -26782,7 +26782,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -26812,7 +26812,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -26829,17 +26829,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>7401740024</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>CAREX COMANS</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -26849,12 +26849,12 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -26873,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -26882,19 +26882,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T71" s="7" t="inlineStr">
         <is>
@@ -26903,12 +26903,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -26920,17 +26920,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7206030002</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>C17A40</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -26940,12 +26940,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -26964,7 +26964,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -26973,7 +26973,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
@@ -26994,7 +26994,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -27011,17 +27011,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7901010009</t>
+          <t>7401740024</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+          <t>CAREX COMANS</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -27031,12 +27031,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -27064,19 +27064,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -27085,12 +27085,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -27102,17 +27102,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>MENTHA SPICATA</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -27122,12 +27122,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -27146,7 +27146,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -27155,19 +27155,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R74" s="4" t="n">
-        <v>20</v>
+        <v>153.33</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T74" s="7" t="inlineStr">
         <is>
@@ -27176,12 +27176,12 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W74" s="4" t="inlineStr">
@@ -27193,17 +27193,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7201530011</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>FREESIA HYBRIDA</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -27237,7 +27237,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -27246,19 +27246,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -27267,12 +27267,12 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
@@ -27284,17 +27284,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7905040016</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>1I6LA30</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -27304,12 +27304,12 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -27328,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -27337,19 +27337,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -27358,12 +27358,12 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -27375,17 +27375,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -27395,12 +27395,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -27419,7 +27419,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -27428,19 +27428,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>393.33</v>
+        <v>100</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -27449,12 +27449,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/02/2025</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -27466,17 +27466,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7401740005</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -27486,12 +27486,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -27510,7 +27510,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -27519,7 +27519,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
@@ -27540,7 +27540,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -27557,17 +27557,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>T25A25</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -27577,12 +27577,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -27601,7 +27601,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -27631,7 +27631,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -27648,12 +27648,12 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>7803160003</t>
+          <t>7206020003</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SATIVA</t>
+          <t>CHRYSANTHEMUN PALODOSUM</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -27668,12 +27668,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -27692,7 +27692,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
@@ -27722,7 +27722,7 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
@@ -27739,17 +27739,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7804090001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>ALLIUM SCHOENOPRASUM</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -27759,12 +27759,12 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -27813,7 +27813,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -27830,17 +27830,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -27850,12 +27850,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -27874,7 +27874,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -27883,19 +27883,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -27904,12 +27904,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -27921,24 +27921,32 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7201530003</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM MIX M10</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr"/>
-      <c r="D83" s="3" t="inlineStr"/>
+          <t>MENTHA SUAVEOLENS</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>5LA40</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -27957,7 +27965,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -27966,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -27987,7 +27995,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -28004,17 +28012,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>3LA45</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -28024,12 +28032,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -28048,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -28057,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T84" s="7" t="inlineStr">
         <is>
@@ -28078,12 +28086,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -28095,17 +28103,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7401740020</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>CAREX OSHIMENSIS</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>2LA25</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -28115,12 +28123,12 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -28139,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -28148,19 +28156,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>100</v>
+        <v>393.33</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -28169,12 +28177,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -28186,17 +28194,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>7206020003</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN PALODOSUM</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -28230,7 +28238,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -28239,7 +28247,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
@@ -28260,7 +28268,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -28277,17 +28285,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -28297,12 +28305,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -28321,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -28330,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
@@ -28351,7 +28359,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -28368,17 +28376,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>M12A20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -28412,7 +28420,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M88" s="5" t="n">
         <v>0</v>
@@ -28421,7 +28429,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -28442,7 +28450,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -28459,17 +28467,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7905070001</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>CEBOLLA FIGUERAS</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>T25A20</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -28479,12 +28487,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -28503,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M89" s="5" t="n">
         <v>0</v>
@@ -28512,19 +28520,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T89" s="7" t="inlineStr">
         <is>
@@ -28533,12 +28541,12 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">
@@ -28550,17 +28558,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7905040015</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE THAI</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -28570,12 +28578,12 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -28594,7 +28602,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M90" s="5" t="n">
         <v>0</v>
@@ -28603,19 +28611,19 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T90" s="7" t="inlineStr">
         <is>
@@ -28624,12 +28632,12 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
@@ -28641,17 +28649,17 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7401740039</t>
+          <t>7401250010</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>PHYLICA ERICOIDES</t>
+          <t>DIANTHUS CARYOPHYLLUS</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>T22A30</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -28700,10 +28708,10 @@
         <v>59</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>393.33</v>
+        <v>206.67</v>
       </c>
       <c r="S91" s="5" t="n">
         <v>30</v>
@@ -28715,12 +28723,12 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
@@ -28732,17 +28740,17 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7201050001</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>BEGONIA SEMPERFLORENS</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -28776,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M92" s="5" t="n">
         <v>0</v>
@@ -28785,19 +28793,19 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q92" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R92" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T92" s="7" t="inlineStr">
         <is>
@@ -28806,12 +28814,12 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W92" s="4" t="inlineStr">
@@ -28823,32 +28831,24 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>7401340000</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>GAURA LINDHEIMERI</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>2I5LA25</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYACINTHUS ORIENTALIS</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr"/>
+      <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M93" s="5" t="n">
         <v>0</v>
@@ -28876,7 +28876,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
@@ -28897,7 +28897,7 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
@@ -28914,17 +28914,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7401740010</t>
+          <t>7401380000</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+          <t>GAZANIA RIGENS (GAZOO)</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -28958,7 +28958,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0</v>
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
@@ -29005,17 +29005,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7904120007</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -29025,12 +29025,12 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M95" s="5" t="n">
         <v>0</v>
@@ -29058,19 +29058,19 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T95" s="7" t="inlineStr">
         <is>
@@ -29079,12 +29079,12 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
@@ -29096,17 +29096,17 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7401740020</t>
+          <t>7905040009</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>CAREX OSHIMENSIS</t>
+          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>2LA25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -29116,12 +29116,12 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -29140,7 +29140,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M96" s="5" t="n">
         <v>0</v>
@@ -29149,19 +29149,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q96" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R96" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T96" s="7" t="inlineStr">
         <is>
@@ -29170,12 +29170,12 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W96" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
@@ -9536,17 +9536,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>7804140001</t>
+          <t>7203510008</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA</t>
+          <t>TRIFOLIUM REPENS (TREBOL)</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>T17A20</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -9556,49 +9556,49 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>31.44</v>
+        <v>34.95</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>14.98</v>
+        <v>18.17</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>48.48</v>
+        <v>41.67</v>
       </c>
       <c r="L30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>393.33</v>
+        <v>206.67</v>
       </c>
       <c r="S30" s="4" t="n">
         <v>30</v>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
@@ -9627,17 +9627,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>7203510008</t>
+          <t>7804140001</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>TRIFOLIUM REPENS (TREBOL)</t>
+          <t>LAVANDULA DENTATA</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>T17A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -9647,49 +9647,49 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H31" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="P31" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I31" s="3" t="n">
-        <v>34.95</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N31" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="P31" s="3" t="n">
-        <v>10</v>
-      </c>
       <c r="Q31" s="3" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>206.67</v>
+        <v>393.33</v>
       </c>
       <c r="S31" s="4" t="n">
         <v>30</v>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -11811,12 +11811,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>7905130008</t>
+          <t>7905130009</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>GUISANTE MATA BAJA</t>
+          <t>HABA</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -11867,7 +11867,7 @@
         <v>7</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="3" t="n">
         <v>38</v>
@@ -11902,12 +11902,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>7905130009</t>
+          <t>7905130008</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>HABA</t>
+          <t>GUISANTE MATA BAJA</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -11958,7 +11958,7 @@
         <v>7</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="3" t="n">
         <v>38</v>
@@ -15887,17 +15887,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -15907,12 +15907,12 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -15922,13 +15922,13 @@
         <v>4</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>6.48</v>
+        <v>5.21</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>26.67</v>
+        <v>44.44</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
@@ -15940,38 +15940,38 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -16069,17 +16069,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -16089,12 +16089,12 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G36" s="3" t="n">
@@ -16104,13 +16104,13 @@
         <v>4</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>5.21</v>
+        <v>6.48</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>44.44</v>
+        <v>26.67</v>
       </c>
       <c r="L36" s="3" t="n">
         <v>0</v>
@@ -16122,38 +16122,38 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -17980,12 +17980,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>7901010006</t>
+          <t>7901010007</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
+          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -18036,7 +18036,7 @@
         <v>13</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>3</v>
@@ -18071,17 +18071,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>7901010008</t>
+          <t>7905130006</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
+          <t>COLIFLOR ROMANESCO</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
@@ -18106,10 +18106,10 @@
         <v>2</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>5.98</v>
+        <v>4.98</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>3.28</v>
+        <v>2.37</v>
       </c>
       <c r="K58" s="3" t="n">
         <v>13.33</v>
@@ -18127,47 +18127,47 @@
         <v>13</v>
       </c>
       <c r="P58" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R58" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S58" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T58" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>7901010007</t>
+          <t>7901010006</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA MARA DES BOIS</t>
+          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -18218,7 +18218,7 @@
         <v>13</v>
       </c>
       <c r="P59" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="n">
         <v>3</v>
@@ -18253,17 +18253,17 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>7905130006</t>
+          <t>7901010008</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO</t>
+          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -18288,10 +18288,10 @@
         <v>2</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>4.98</v>
+        <v>5.98</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>2.37</v>
+        <v>3.28</v>
       </c>
       <c r="K60" s="3" t="n">
         <v>13.33</v>
@@ -18309,35 +18309,35 @@
         <v>13</v>
       </c>
       <c r="P60" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T60" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T60" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.83€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 383 días.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W60" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -18981,32 +18981,32 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>7205030001</t>
+          <t>7401250001</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN MINI</t>
+          <t>DIANTHUS BARBATUS</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>BICOLOR</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G68" s="3" t="n">
@@ -19072,12 +19072,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>7501010001</t>
+          <t>7205030001</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>CALLUNA TINTADA</t>
+          <t>CYCLAMEN MINI</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -19087,17 +19087,17 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G69" s="3" t="n">
@@ -19128,7 +19128,7 @@
         <v>-1</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="3" t="n">
         <v>0</v>
@@ -19163,32 +19163,32 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>7401250001</t>
+          <t>7501010001</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS BARBATUS</t>
+          <t>CALLUNA TINTADA</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>BICOLOR</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G70" s="3" t="n">
@@ -19219,7 +19219,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="3" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q70" s="3" t="n">
         <v>0</v>
@@ -20179,7 +20179,7 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -20220,7 +20220,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q81" s="3" t="n">
         <v>0</v>
@@ -20361,7 +20361,7 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -20402,7 +20402,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="3" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="Q83" s="3" t="n">
         <v>0</v>
@@ -20600,17 +20600,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7205080001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>BELLIS PERENNIS</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -20644,7 +20644,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -20653,19 +20653,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="6" t="inlineStr">
         <is>
@@ -20674,12 +20674,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -20691,17 +20691,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>7401740005</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -20711,12 +20711,12 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -20744,7 +20744,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>59</v>
@@ -20765,7 +20765,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -20782,17 +20782,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>7206030005</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN VINO TINTO</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -20826,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>59</v>
@@ -20856,7 +20856,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
@@ -20873,17 +20873,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>7803160003</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>MENTHA SATIVA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -20893,12 +20893,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -20917,7 +20917,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -20926,19 +20926,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5" s="6" t="inlineStr">
         <is>
@@ -20947,12 +20947,12 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -20964,17 +20964,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7501020003</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>ERICA GRACILIS ROOD</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -20984,12 +20984,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
@@ -21008,7 +21008,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
@@ -21017,7 +21017,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>59</v>
@@ -21038,7 +21038,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -21055,17 +21055,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7401250010</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>DIANTHUS CARYOPHYLLUS</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>T22A30</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -21075,12 +21075,12 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
@@ -21099,7 +21099,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -21108,16 +21108,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>393.33</v>
+        <v>206.67</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>30</v>
@@ -21129,12 +21129,12 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
@@ -21146,17 +21146,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -21166,12 +21166,12 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
@@ -21190,7 +21190,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
@@ -21199,19 +21199,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
         <is>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
@@ -21237,17 +21237,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>7501020003</t>
+          <t>7905070001</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ERICA GRACILIS ROOD</t>
+          <t>CEBOLLA FIGUERAS</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -21257,12 +21257,12 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0</v>
@@ -21290,19 +21290,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T9" s="6" t="inlineStr">
         <is>
@@ -21311,12 +21311,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -21328,32 +21328,32 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>7805110001</t>
+          <t>7503010004</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SALVIA FARINACEA</t>
+          <t>CHRYSANTHEMUN POMPON</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>T23A30</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
@@ -21381,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>59</v>
@@ -21402,7 +21402,7 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
@@ -21419,17 +21419,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>7401740038</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>STACHYS BYZANTINA</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -21439,12 +21439,12 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -21463,7 +21463,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0</v>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>59</v>
@@ -21493,7 +21493,7 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
@@ -21510,22 +21510,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>7203230000</t>
+          <t>7206030001</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>GERBERA JAMESONII</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>C18A20</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>ROJO</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -21554,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -21563,19 +21563,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>20</v>
+        <v>253.33</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
@@ -21584,12 +21584,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -21601,17 +21601,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>7401740044</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>DURANTA REPENS</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -21621,12 +21621,12 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
@@ -21645,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -21654,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>59</v>
@@ -21675,7 +21675,7 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
@@ -21692,17 +21692,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>7401740010</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -21712,12 +21712,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
@@ -21736,7 +21736,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -21745,7 +21745,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>59</v>
@@ -21783,17 +21783,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>C23A30</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -21803,12 +21803,12 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -21857,7 +21857,7 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
@@ -21874,17 +21874,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -21894,12 +21894,12 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -21918,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>59</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
@@ -21965,17 +21965,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>7805070001</t>
+          <t>7401340000</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
+          <t>GAURA LINDHEIMERI</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -21985,12 +21985,12 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -22009,7 +22009,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0</v>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>59</v>
@@ -22039,7 +22039,7 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
@@ -22056,17 +22056,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7401740024</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>CAREX COMANS</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -22076,12 +22076,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -22100,7 +22100,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -22109,7 +22109,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>59</v>
@@ -22130,7 +22130,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -22147,17 +22147,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7201050001</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>BEGONIA SEMPERFLORENS</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -22167,12 +22167,12 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -22191,7 +22191,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>0</v>
@@ -22200,19 +22200,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
@@ -22221,12 +22221,12 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -22238,17 +22238,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -22258,12 +22258,12 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>0</v>
@@ -22291,19 +22291,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T20" s="6" t="inlineStr">
         <is>
@@ -22312,12 +22312,12 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -22329,17 +22329,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>7201350001</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>TAGETES PATULA</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -22373,7 +22373,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>0</v>
@@ -22382,19 +22382,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T21" s="6" t="inlineStr">
         <is>
@@ -22403,12 +22403,12 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
@@ -22420,17 +22420,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7804090001</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>ALLIUM SCHOENOPRASUM</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>C25COLG</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -22440,12 +22440,12 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
@@ -22464,7 +22464,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>0</v>
@@ -22473,7 +22473,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>59</v>
@@ -22494,7 +22494,7 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
@@ -22511,17 +22511,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>7401740039</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>PHYLICA ERICOIDES</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -22531,12 +22531,12 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
@@ -22555,7 +22555,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>59</v>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
@@ -22602,17 +22602,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>7905040015</t>
+          <t>7401740005</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE THAI</t>
+          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -22622,12 +22622,12 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>0</v>
@@ -22655,19 +22655,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
@@ -22676,12 +22676,12 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
@@ -22693,32 +22693,24 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>7901010009</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>M105A10</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TAGETES ERECTA</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
@@ -22737,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>0</v>
@@ -22746,19 +22738,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T25" s="6" t="inlineStr">
         <is>
@@ -22767,12 +22759,12 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="3" t="inlineStr">
@@ -22784,17 +22776,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -22828,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>0</v>
@@ -22837,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T26" s="6" t="inlineStr">
         <is>
@@ -22858,12 +22850,12 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
@@ -22875,17 +22867,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>7206100001</t>
+          <t>7401740010</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>PRIMULA OBCONICA</t>
+          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -22895,12 +22887,12 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -22919,7 +22911,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>0</v>
@@ -22928,16 +22920,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>0</v>
@@ -22954,7 +22946,7 @@
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -22966,24 +22958,32 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>7201530003</t>
+          <t>7901010009</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>CAPSICUM MIX M10</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr"/>
+          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>M105A10</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
@@ -23002,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0</v>
@@ -23011,19 +23011,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
@@ -23032,12 +23032,12 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
@@ -23049,17 +23049,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -23069,12 +23069,12 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
@@ -23093,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>0</v>
@@ -23102,19 +23102,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T29" s="6" t="inlineStr">
         <is>
@@ -23123,12 +23123,12 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
@@ -23140,17 +23140,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>7401380000</t>
+          <t>7201350001</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>GAZANIA RIGENS (GAZOO)</t>
+          <t>TAGETES PATULA</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -23160,12 +23160,12 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>59</v>
@@ -23231,32 +23231,24 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>7901010005</t>
+          <t>7201400002</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>FRESA SAN ANDREAS</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>M105A10</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PORTULACA UMBRATICOLA</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
@@ -23275,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>0</v>
@@ -23284,19 +23276,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T31" s="6" t="inlineStr">
         <is>
@@ -23305,12 +23297,12 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -23322,17 +23314,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -23366,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32" s="4" t="n">
         <v>0</v>
@@ -23375,7 +23367,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>59</v>
@@ -23396,7 +23388,7 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
@@ -23413,32 +23405,24 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7201530003</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>T25A20</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM MIX M10</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
@@ -23457,7 +23441,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>0</v>
@@ -23466,19 +23450,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>66.67</v>
+        <v>393.33</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T33" s="6" t="inlineStr">
         <is>
@@ -23487,12 +23471,12 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -23504,17 +23488,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>3LA45</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -23524,12 +23508,12 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -23548,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>0</v>
@@ -23557,19 +23541,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T34" s="6" t="inlineStr">
         <is>
@@ -23578,12 +23562,12 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -23595,17 +23579,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -23615,12 +23599,12 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
@@ -23639,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>0</v>
@@ -23648,19 +23632,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T35" s="6" t="inlineStr">
         <is>
@@ -23669,12 +23653,12 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
@@ -23686,12 +23670,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7904120004</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>LECHUGA ROMANA</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -23730,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>0</v>
@@ -23739,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>59</v>
@@ -23760,7 +23744,7 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
@@ -23777,17 +23761,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>7401740020</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>CAREX OSHIMENSIS</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2LA25</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -23797,12 +23781,12 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
@@ -23821,7 +23805,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>0</v>
@@ -23830,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>59</v>
@@ -23851,7 +23835,7 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
@@ -23868,16 +23852,24 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>7201530004</t>
+          <t>7206020003</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>CATHARANTHUS ROSEUS</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="inlineStr"/>
+          <t>CHRYSANTHEMUN PALODOSUM</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>M13A20</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
           <t>72</t>
@@ -23904,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>0</v>
@@ -23913,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>59</v>
@@ -23934,7 +23926,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
@@ -23951,17 +23943,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>7401740024</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>CAREX COMANS</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>C23A30</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -23971,12 +23963,12 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G39" s="3" t="n">
@@ -23995,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
         <v>0</v>
@@ -24004,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>59</v>
@@ -24025,7 +24017,7 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
@@ -24042,16 +24034,24 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7206030002</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr"/>
+          <t>CYCLAMEN PERSICUM</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>C17A40</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
           <t>72</t>
@@ -24078,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>0</v>
@@ -24087,7 +24087,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>59</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
@@ -24125,17 +24125,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>59</v>
@@ -24199,7 +24199,7 @@
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
@@ -24216,17 +24216,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7104090001</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -24236,12 +24236,12 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G42" s="3" t="n">
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>59</v>
@@ -24290,7 +24290,7 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
@@ -24307,17 +24307,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>7203280002</t>
+          <t>7401740038</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA COPA</t>
+          <t>STACHYS BYZANTINA</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>C20A50</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -24327,12 +24327,12 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G43" s="3" t="n">
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>0</v>
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>59</v>
@@ -24381,7 +24381,7 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
@@ -24398,17 +24398,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>7401340000</t>
+          <t>7805110003</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>GAURA LINDHEIMERI</t>
+          <t>SALVIA MYCROFOLIA</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -24418,12 +24418,12 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G44" s="3" t="n">
@@ -24442,7 +24442,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>59</v>
@@ -24472,7 +24472,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
@@ -24489,17 +24489,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>7905070001</t>
+          <t>7803160003</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA FIGUERAS</t>
+          <t>MENTHA SATIVA</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -24509,12 +24509,12 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G45" s="3" t="n">
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>0</v>
@@ -24542,19 +24542,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
@@ -24563,12 +24563,12 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
@@ -24580,17 +24580,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>5LA25</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -24600,12 +24600,12 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G46" s="3" t="n">
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>0</v>
@@ -24633,19 +24633,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T46" s="6" t="inlineStr">
         <is>
@@ -24654,12 +24654,12 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
@@ -24671,17 +24671,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>7804090001</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>ALLIUM SCHOENOPRASUM</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>T25A20</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -24691,12 +24691,12 @@
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>393.33</v>
+        <v>66.67</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T47" s="6" t="inlineStr">
         <is>
@@ -24745,12 +24745,12 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
@@ -24762,24 +24762,32 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>7201400002</t>
+          <t>7401740039</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>PORTULACA UMBRATICOLA</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="inlineStr"/>
+          <t>PHYLICA ERICOIDES</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>2I5LA30</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
@@ -24798,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>0</v>
@@ -24807,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>59</v>
@@ -24828,7 +24836,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
@@ -24845,17 +24853,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>7201050001</t>
+          <t>7401380000</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA SEMPERFLORENS</t>
+          <t>GAZANIA RIGENS (GAZOO)</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -24865,12 +24873,12 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
@@ -24889,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>0</v>
@@ -24898,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>59</v>
@@ -24936,24 +24944,32 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>7201530001</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
-      <c r="D50" s="2" t="inlineStr"/>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>M105A15</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G50" s="3" t="n">
@@ -24972,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M50" s="4" t="n">
         <v>0</v>
@@ -24981,19 +24997,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T50" s="6" t="inlineStr">
         <is>
@@ -25002,12 +25018,12 @@
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W50" s="3" t="inlineStr">
@@ -25019,17 +25035,17 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7201530011</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>FREESIA HYBRIDA</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>1I6LA30</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
@@ -25063,7 +25079,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M51" s="4" t="n">
         <v>0</v>
@@ -25072,19 +25088,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T51" s="6" t="inlineStr">
         <is>
@@ -25093,12 +25109,12 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
@@ -25110,17 +25126,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>7206030002</t>
+          <t>7401740040</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>TECOMARIA CAPENSIS</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>C17A40</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -25130,12 +25146,12 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G52" s="3" t="n">
@@ -25154,7 +25170,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M52" s="4" t="n">
         <v>0</v>
@@ -25163,7 +25179,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>59</v>
@@ -25184,7 +25200,7 @@
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
@@ -25201,17 +25217,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>7905040016</t>
+          <t>7401740020</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
+          <t>CAREX OSHIMENSIS</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>2LA25</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -25221,12 +25237,12 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
@@ -25245,7 +25261,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M53" s="4" t="n">
         <v>0</v>
@@ -25254,19 +25270,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S53" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T53" s="6" t="inlineStr">
         <is>
@@ -25275,12 +25291,12 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="3" t="inlineStr">
@@ -25292,17 +25308,17 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>7401740035</t>
+          <t>7203280002</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>ANGELONIA ANGUSTIFOLIA</t>
+          <t>LANTANA CAMARA COPA</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>C20A50</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -25312,12 +25328,12 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G54" s="3" t="n">
@@ -25336,7 +25352,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M54" s="4" t="n">
         <v>0</v>
@@ -25345,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>59</v>
@@ -25366,7 +25382,7 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
@@ -25383,17 +25399,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>7401250010</t>
+          <t>7206100001</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLLUS</t>
+          <t>PRIMULA OBCONICA</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>T22A30</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -25403,12 +25419,12 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
@@ -25427,7 +25443,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M55" s="4" t="n">
         <v>0</v>
@@ -25436,19 +25452,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>206.67</v>
+        <v>0</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T55" s="6" t="inlineStr">
         <is>
@@ -25457,12 +25473,12 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W55" s="3" t="inlineStr">
@@ -25474,32 +25490,24 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7201530002</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
@@ -25518,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M56" s="4" t="n">
         <v>0</v>
@@ -25527,19 +25535,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
@@ -25548,12 +25556,12 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="3" t="inlineStr">
@@ -25565,24 +25573,32 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7905040015</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr"/>
-      <c r="D57" s="2" t="inlineStr"/>
+          <t>PIMIENTO PICANTE THAI</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>M105A20</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
@@ -25601,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M57" s="4" t="n">
         <v>0</v>
@@ -25610,19 +25626,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R57" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S57" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T57" s="6" t="inlineStr">
         <is>
@@ -25631,12 +25647,12 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W57" s="3" t="inlineStr">
@@ -25648,17 +25664,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
@@ -25668,12 +25684,12 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
@@ -25692,7 +25708,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M58" s="4" t="n">
         <v>0</v>
@@ -25701,7 +25717,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>59</v>
@@ -25722,7 +25738,7 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
@@ -25739,17 +25755,17 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>5LA25</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
@@ -25783,7 +25799,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="M59" s="4" t="n">
         <v>0</v>
@@ -25792,7 +25808,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>59</v>
@@ -25813,7 +25829,7 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr">
@@ -25830,17 +25846,17 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -25850,12 +25866,12 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G60" s="3" t="n">
@@ -25874,7 +25890,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M60" s="4" t="n">
         <v>0</v>
@@ -25883,19 +25899,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T60" s="6" t="inlineStr">
         <is>
@@ -25904,12 +25920,12 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W60" s="3" t="inlineStr">
@@ -25921,32 +25937,24 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>7904120004</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>PACK6</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYACINTHUS ORIENTALIS</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G61" s="3" t="n">
@@ -25965,7 +25973,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M61" s="4" t="n">
         <v>0</v>
@@ -25974,7 +25982,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P61" s="3" t="n">
         <v>59</v>
@@ -25995,7 +26003,7 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="3" t="inlineStr">
@@ -26012,17 +26020,17 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>7803250006</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -26032,12 +26040,12 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G62" s="3" t="n">
@@ -26056,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M62" s="4" t="n">
         <v>0</v>
@@ -26065,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P62" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T62" s="6" t="inlineStr">
         <is>
@@ -26086,12 +26094,12 @@
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="3" t="inlineStr">
@@ -26103,17 +26111,17 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -26147,7 +26155,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M63" s="4" t="n">
         <v>0</v>
@@ -26156,7 +26164,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P63" s="3" t="n">
         <v>59</v>
@@ -26177,7 +26185,7 @@
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
@@ -26194,17 +26202,17 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7202290001</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA</t>
+          <t>LOBELIA ERINUS TRICOLOR</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>3I6LCOLG</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -26214,12 +26222,12 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G64" s="3" t="n">
@@ -26238,7 +26246,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M64" s="4" t="n">
         <v>0</v>
@@ -26247,19 +26255,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P64" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="R64" s="3" t="n">
-        <v>153.33</v>
+        <v>20</v>
       </c>
       <c r="S64" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T64" s="6" t="inlineStr">
         <is>
@@ -26268,12 +26276,12 @@
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W64" s="3" t="inlineStr">
@@ -26285,17 +26293,17 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
@@ -26305,12 +26313,12 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G65" s="3" t="n">
@@ -26329,7 +26337,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M65" s="4" t="n">
         <v>0</v>
@@ -26338,19 +26346,19 @@
         <v>0</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P65" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="R65" s="3" t="n">
-        <v>393.33</v>
+        <v>100</v>
       </c>
       <c r="S65" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T65" s="6" t="inlineStr">
         <is>
@@ -26359,12 +26367,12 @@
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/02/2025</t>
         </is>
       </c>
       <c r="W65" s="3" t="inlineStr">
@@ -26376,17 +26384,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>7202520009</t>
+          <t>7805070001</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>SOLANUM PSEUDOCAPSICUM</t>
+          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -26396,12 +26404,12 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G66" s="3" t="n">
@@ -26420,7 +26428,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66" s="4" t="n">
         <v>0</v>
@@ -26429,7 +26437,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P66" s="3" t="n">
         <v>59</v>
@@ -26450,7 +26458,7 @@
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
@@ -26467,17 +26475,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>7904120007</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -26487,12 +26495,12 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G67" s="3" t="n">
@@ -26511,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M67" s="4" t="n">
         <v>0</v>
@@ -26520,7 +26528,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>59</v>
@@ -26541,7 +26549,7 @@
       </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="3" t="inlineStr">
@@ -26558,17 +26566,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>7401150001</t>
+          <t>7803250006</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>CAMPANULA MEZCLA</t>
+          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -26578,12 +26586,12 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G68" s="3" t="n">
@@ -26602,7 +26610,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M68" s="4" t="n">
         <v>0</v>
@@ -26611,16 +26619,16 @@
         <v>0</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P68" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R68" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S68" s="4" t="n">
         <v>0</v>
@@ -26637,7 +26645,7 @@
       </c>
       <c r="V68" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W68" s="3" t="inlineStr">
@@ -26649,32 +26657,24 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7201530004</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>T25A25</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CATHARANTHUS ROSEUS</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G69" s="3" t="n">
@@ -26693,7 +26693,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M69" s="4" t="n">
         <v>0</v>
@@ -26702,7 +26702,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P69" s="3" t="n">
         <v>59</v>
@@ -26723,7 +26723,7 @@
       </c>
       <c r="U69" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="3" t="inlineStr">
@@ -26740,12 +26740,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>7206020003</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN PALODOSUM</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -26784,7 +26784,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70" s="4" t="n">
         <v>0</v>
@@ -26793,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P70" s="3" t="n">
         <v>59</v>
@@ -26814,7 +26814,7 @@
       </c>
       <c r="U70" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="3" t="inlineStr">
@@ -26831,17 +26831,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -26851,12 +26851,12 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G71" s="3" t="n">
@@ -26875,7 +26875,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M71" s="4" t="n">
         <v>0</v>
@@ -26884,7 +26884,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P71" s="3" t="n">
         <v>59</v>
@@ -26905,7 +26905,7 @@
       </c>
       <c r="U71" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="3" t="inlineStr">
@@ -26922,17 +26922,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7206030005</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>CYCLAMEN VINO TINTO</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M72" s="4" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P72" s="3" t="n">
         <v>59</v>
@@ -26996,7 +26996,7 @@
       </c>
       <c r="U72" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="3" t="inlineStr">
@@ -27013,32 +27013,24 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7201530001</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>M13A10</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G73" s="3" t="n">
@@ -27057,7 +27049,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M73" s="4" t="n">
         <v>0</v>
@@ -27066,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P73" s="3" t="n">
         <v>59</v>
@@ -27087,7 +27079,7 @@
       </c>
       <c r="U73" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="3" t="inlineStr">
@@ -27104,17 +27096,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -27124,12 +27116,12 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G74" s="3" t="n">
@@ -27148,7 +27140,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M74" s="4" t="n">
         <v>0</v>
@@ -27157,19 +27149,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P74" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q74" s="3" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="R74" s="3" t="n">
-        <v>253.33</v>
+        <v>53.33</v>
       </c>
       <c r="S74" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T74" s="6" t="inlineStr">
         <is>
@@ -27178,12 +27170,12 @@
       </c>
       <c r="U74" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="3" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Compra 20/02/2025</t>
         </is>
       </c>
       <c r="W74" s="3" t="inlineStr">
@@ -27195,17 +27187,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7805110001</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>SALVIA FARINACEA</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -27215,12 +27207,12 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G75" s="3" t="n">
@@ -27239,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M75" s="4" t="n">
         <v>0</v>
@@ -27248,7 +27240,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P75" s="3" t="n">
         <v>59</v>
@@ -27269,7 +27261,7 @@
       </c>
       <c r="U75" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="3" t="inlineStr">
@@ -27286,17 +27278,17 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7904120007</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>LECHUGA MARAVILLA</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>M12A20</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
@@ -27306,12 +27298,12 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G76" s="3" t="n">
@@ -27330,7 +27322,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M76" s="4" t="n">
         <v>0</v>
@@ -27339,7 +27331,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P76" s="3" t="n">
         <v>59</v>
@@ -27360,7 +27352,7 @@
       </c>
       <c r="U76" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="3" t="inlineStr">
@@ -27377,17 +27369,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -27397,12 +27389,12 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G77" s="3" t="n">
@@ -27421,7 +27413,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M77" s="4" t="n">
         <v>0</v>
@@ -27430,16 +27422,16 @@
         <v>0</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P77" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R77" s="3" t="n">
-        <v>53.33</v>
+        <v>20</v>
       </c>
       <c r="S77" s="4" t="n">
         <v>0</v>
@@ -27456,7 +27448,7 @@
       </c>
       <c r="V77" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W77" s="3" t="inlineStr">
@@ -27468,17 +27460,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>7905040009</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>T25A25</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -27488,12 +27480,12 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G78" s="3" t="n">
@@ -27512,7 +27504,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M78" s="4" t="n">
         <v>0</v>
@@ -27521,19 +27513,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P78" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R78" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S78" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T78" s="6" t="inlineStr">
         <is>
@@ -27542,12 +27534,12 @@
       </c>
       <c r="U78" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W78" s="3" t="inlineStr">
@@ -27559,17 +27551,17 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>7401740043</t>
+          <t>7203230000</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>CONVOLVULUS CNEORUM</t>
+          <t>GERBERA JAMESONII</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -27579,12 +27571,12 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G79" s="3" t="n">
@@ -27603,7 +27595,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M79" s="4" t="n">
         <v>0</v>
@@ -27612,19 +27604,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P79" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R79" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S79" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T79" s="6" t="inlineStr">
         <is>
@@ -27633,12 +27625,12 @@
       </c>
       <c r="U79" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W79" s="3" t="inlineStr">
@@ -27650,32 +27642,32 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>7503010004</t>
+          <t>7905040009</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN POMPON</t>
+          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>T23A30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G80" s="3" t="n">
@@ -27694,7 +27686,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M80" s="4" t="n">
         <v>0</v>
@@ -27703,19 +27695,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P80" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R80" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S80" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T80" s="6" t="inlineStr">
         <is>
@@ -27724,12 +27716,12 @@
       </c>
       <c r="U80" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W80" s="3" t="inlineStr">
@@ -27741,17 +27733,17 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>7201530011</t>
+          <t>7401740043</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>FREESIA HYBRIDA</t>
+          <t>CONVOLVULUS CNEORUM</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
@@ -27761,12 +27753,12 @@
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G81" s="3" t="n">
@@ -27785,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M81" s="4" t="n">
         <v>0</v>
@@ -27794,19 +27786,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P81" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q81" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R81" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S81" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T81" s="6" t="inlineStr">
         <is>
@@ -27815,12 +27807,12 @@
       </c>
       <c r="U81" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W81" s="3" t="inlineStr">
@@ -27832,16 +27824,24 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>7201530002</t>
+          <t>7202520009</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr"/>
-      <c r="D82" s="2" t="inlineStr"/>
+          <t>SOLANUM PSEUDOCAPSICUM</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>M13A25</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
           <t>72</t>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M82" s="4" t="n">
         <v>0</v>
@@ -27877,7 +27877,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>59</v>
@@ -27898,7 +27898,7 @@
       </c>
       <c r="U82" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="3" t="inlineStr">
@@ -27915,17 +27915,17 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>APIUM GRAVEOLENS (APIO)</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
@@ -27974,13 +27974,13 @@
         <v>59</v>
       </c>
       <c r="Q83" s="3" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="R83" s="3" t="n">
-        <v>100</v>
+        <v>253.33</v>
       </c>
       <c r="S83" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T83" s="6" t="inlineStr">
         <is>
@@ -27989,12 +27989,12 @@
       </c>
       <c r="U83" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="3" t="inlineStr">
         <is>
-          <t>Compra 13/02/2025</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W83" s="3" t="inlineStr">
@@ -28006,17 +28006,17 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>7401740040</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>TECOMARIA CAPENSIS</t>
+          <t>MENTHA SPICATA</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -28026,12 +28026,12 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G84" s="3" t="n">
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M84" s="4" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P84" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q84" s="3" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R84" s="3" t="n">
-        <v>393.33</v>
+        <v>153.33</v>
       </c>
       <c r="S84" s="4" t="n">
         <v>30</v>
@@ -28080,12 +28080,12 @@
       </c>
       <c r="U84" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W84" s="3" t="inlineStr">
@@ -28097,32 +28097,32 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>7206030001</t>
+          <t>7905040016</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>C18A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G85" s="3" t="n">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M85" s="4" t="n">
         <v>0</v>
@@ -28150,19 +28150,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P85" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q85" s="3" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R85" s="3" t="n">
-        <v>253.33</v>
+        <v>20</v>
       </c>
       <c r="S85" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T85" s="6" t="inlineStr">
         <is>
@@ -28171,12 +28171,12 @@
       </c>
       <c r="U85" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="3" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W85" s="3" t="inlineStr">
@@ -28188,17 +28188,17 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>3LA45</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -28208,12 +28208,12 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G86" s="3" t="n">
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M86" s="4" t="n">
         <v>0</v>
@@ -28241,7 +28241,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P86" s="3" t="n">
         <v>59</v>
@@ -28279,17 +28279,17 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7901010005</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>FRESA SAN ANDREAS</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
@@ -28299,12 +28299,12 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G87" s="3" t="n">
@@ -28323,7 +28323,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M87" s="4" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P87" s="3" t="n">
         <v>59</v>
@@ -28370,17 +28370,17 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>7805110003</t>
+          <t>7401150001</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>SALVIA MYCROFOLIA</t>
+          <t>CAMPANULA MEZCLA</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
@@ -28390,12 +28390,12 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G88" s="3" t="n">
@@ -28414,7 +28414,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M88" s="4" t="n">
         <v>0</v>
@@ -28423,19 +28423,19 @@
         <v>0</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q88" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R88" s="3" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S88" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T88" s="6" t="inlineStr">
         <is>
@@ -28444,12 +28444,12 @@
       </c>
       <c r="U88" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W88" s="3" t="inlineStr">
@@ -28461,24 +28461,16 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>7205080001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>BELLIS PERENNIS</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>M9A15</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALENDULA OFFICINALIS</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr">
         <is>
           <t>72</t>
@@ -28505,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M89" s="4" t="n">
         <v>0</v>
@@ -28514,19 +28506,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P89" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q89" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R89" s="3" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S89" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T89" s="6" t="inlineStr">
         <is>
@@ -28535,12 +28527,12 @@
       </c>
       <c r="U89" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W89" s="3" t="inlineStr">
@@ -28552,17 +28544,17 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>7202290001</t>
+          <t>7401740035</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>LOBELIA ERINUS TRICOLOR</t>
+          <t>ANGELONIA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>3I6LCOLG</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -28572,12 +28564,12 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G90" s="3" t="n">
@@ -28596,7 +28588,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M90" s="4" t="n">
         <v>0</v>
@@ -28605,19 +28597,19 @@
         <v>0</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P90" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q90" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R90" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S90" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T90" s="6" t="inlineStr">
         <is>
@@ -28626,12 +28618,12 @@
       </c>
       <c r="U90" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W90" s="3" t="inlineStr">
@@ -28643,17 +28635,17 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>C25COLG</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
@@ -28717,7 +28709,7 @@
       </c>
       <c r="U91" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="3" t="inlineStr">
@@ -28734,17 +28726,17 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -28778,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M92" s="4" t="n">
         <v>0</v>
@@ -28787,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P92" s="3" t="n">
         <v>59</v>
@@ -28825,17 +28817,17 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>7104090001</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -28845,12 +28837,12 @@
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G93" s="3" t="n">
@@ -28869,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M93" s="4" t="n">
         <v>0</v>
@@ -28878,7 +28870,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P93" s="3" t="n">
         <v>59</v>
@@ -28899,7 +28891,7 @@
       </c>
       <c r="U93" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="3" t="inlineStr">
@@ -28916,17 +28908,17 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -28936,12 +28928,12 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G94" s="3" t="n">
@@ -28960,7 +28952,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M94" s="4" t="n">
         <v>0</v>
@@ -28969,19 +28961,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P94" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S94" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T94" s="6" t="inlineStr">
         <is>
@@ -28990,12 +28982,12 @@
       </c>
       <c r="U94" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W94" s="3" t="inlineStr">
@@ -29007,24 +28999,32 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr"/>
-      <c r="D95" s="2" t="inlineStr"/>
+          <t>LECHUGA ICEBERG</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>PACK6</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G95" s="3" t="n">
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M95" s="4" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P95" s="3" t="n">
         <v>59</v>
@@ -29073,7 +29073,7 @@
       </c>
       <c r="U95" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="3" t="inlineStr">
@@ -29090,17 +29090,17 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7401740044</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>DURANTA REPENS</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
@@ -29134,7 +29134,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M96" s="4" t="n">
         <v>0</v>
@@ -29143,19 +29143,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P96" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q96" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R96" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S96" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T96" s="6" t="inlineStr">
         <is>
@@ -29164,12 +29164,12 @@
       </c>
       <c r="U96" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W96" s="3" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
@@ -9536,17 +9536,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>7203510008</t>
+          <t>7804140001</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>TRIFOLIUM REPENS (TREBOL)</t>
+          <t>LAVANDULA DENTATA</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>T17A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -9556,49 +9556,49 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H30" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" s="4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="P30" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I30" s="3" t="n">
-        <v>34.95</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N30" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O30" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="P30" s="3" t="n">
-        <v>10</v>
-      </c>
       <c r="Q30" s="3" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>206.67</v>
+        <v>393.33</v>
       </c>
       <c r="S30" s="4" t="n">
         <v>30</v>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
@@ -9627,17 +9627,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>7804140001</t>
+          <t>7203510008</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA</t>
+          <t>TRIFOLIUM REPENS (TREBOL)</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>T17A20</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -9647,49 +9647,49 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>31.44</v>
+        <v>34.95</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>14.98</v>
+        <v>18.17</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>48.48</v>
+        <v>41.67</v>
       </c>
       <c r="L31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="4" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>393.33</v>
+        <v>206.67</v>
       </c>
       <c r="S31" s="4" t="n">
         <v>30</v>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -10355,17 +10355,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>7905120000</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>TOMATE CORAZON BUEY</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -10375,12 +10375,12 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G39" s="3" t="n">
@@ -10390,13 +10390,13 @@
         <v>12</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>29.88</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>15.52</v>
+        <v>15.63</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>80</v>
+        <v>37.5</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>4.6</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>0</v>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: 3 unidades. Stock objetivo: 4 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 98 días.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
@@ -10439,24 +10439,24 @@
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7905120000</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>TOMATE CORAZON BUEY</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -10466,12 +10466,12 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G40" s="3" t="n">
@@ -10481,13 +10481,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>15.63</v>
+        <v>15.52</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>37.5</v>
+        <v>80</v>
       </c>
       <c r="L40" s="3" t="n">
         <v>0</v>
@@ -10499,7 +10499,7 @@
         <v>4.6</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>0</v>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 98 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: 3 unidades. Stock objetivo: 4 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -13521,17 +13521,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>7202520002</t>
+          <t>7401740015</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>HYACINTHUS MIX</t>
+          <t>ALYSSUM MARITIMUN</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>M7A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -13541,49 +13541,49 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>8.94</v>
+        <v>22.5</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>2.19</v>
+        <v>14.51</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>17.14</v>
+        <v>15</v>
       </c>
       <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>59</v>
-      </c>
       <c r="R8" s="3" t="n">
-        <v>393.33</v>
+        <v>193.33</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>30</v>
@@ -13595,12 +13595,12 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 30/01/2025</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
@@ -13612,17 +13612,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>7401740015</t>
+          <t>7202520002</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ALYSSUM MARITIMUN</t>
+          <t>HYACINTHUS MIX</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M7A15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -13632,49 +13632,49 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>22.5</v>
+        <v>8.94</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>14.51</v>
+        <v>2.19</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>15</v>
+        <v>17.14</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>193.33</v>
+        <v>393.33</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>30</v>
@@ -13686,12 +13686,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 30/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -14067,12 +14067,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7905130003</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>COL BRUSELAS</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -14108,10 +14108,10 @@
         <v>5.54</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0.4</v>
@@ -14120,10 +14120,10 @@
         <v>1.1</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>59</v>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -14158,12 +14158,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>7905130003</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>COL BRUSELAS</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -14199,10 +14199,10 @@
         <v>5.54</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0.4</v>
@@ -14211,10 +14211,10 @@
         <v>1.1</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>59</v>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
@@ -15887,17 +15887,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -15907,12 +15907,12 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -15922,13 +15922,13 @@
         <v>4</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>5.21</v>
+        <v>6.48</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>44.44</v>
+        <v>26.67</v>
       </c>
       <c r="L34" s="3" t="n">
         <v>0</v>
@@ -15940,55 +15940,55 @@
         <v>1.5</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T34" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T34" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>7905040001</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO ITALIANO</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -15998,12 +15998,12 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
@@ -16013,13 +16013,13 @@
         <v>4</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>9.960000000000001</v>
+        <v>10</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>26.67</v>
+        <v>44.44</v>
       </c>
       <c r="L35" s="3" t="n">
         <v>0</v>
@@ -16031,50 +16031,50 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7905040001</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>PIMIENTO ITALIANO</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -16104,10 +16104,10 @@
         <v>4</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>11.4</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>6.48</v>
+        <v>5.17</v>
       </c>
       <c r="K36" s="3" t="n">
         <v>26.67</v>
@@ -16125,7 +16125,7 @@
         <v>11</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>3</v>
@@ -17161,17 +17161,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>7803180002</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>M14A20</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -17181,88 +17181,88 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>7.98</v>
+        <v>6.99</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>4.45</v>
+        <v>3.55</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T48" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T48" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7803180002</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>M14A20</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -17272,71 +17272,71 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
         <v>15</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>6.99</v>
+        <v>7.98</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P49" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -18162,12 +18162,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>7901010006</t>
+          <t>7901010008</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
+          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -18253,12 +18253,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>7901010008</t>
+          <t>7901010006</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA FRAMBERRY</t>
+          <t>FRAGARIA VESCA - FRESITA DEL BOSQUE</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -18981,32 +18981,32 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>7401250001</t>
+          <t>7205030001</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS BARBATUS</t>
+          <t>CYCLAMEN MINI</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>BICOLOR</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G68" s="3" t="n">
@@ -19072,12 +19072,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>7205030001</t>
+          <t>7501010001</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN MINI</t>
+          <t>CALLUNA TINTADA</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -19087,17 +19087,17 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G69" s="3" t="n">
@@ -19128,7 +19128,7 @@
         <v>-1</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Q69" s="3" t="n">
         <v>0</v>
@@ -19163,32 +19163,32 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>7501010001</t>
+          <t>7401250001</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>CALLUNA TINTADA</t>
+          <t>DIANTHUS BARBATUS</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>BICOLOR</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G70" s="3" t="n">
@@ -19219,7 +19219,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="3" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Q70" s="3" t="n">
         <v>0</v>
@@ -20179,7 +20179,7 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARILLO</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -20220,7 +20220,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="Q81" s="3" t="n">
         <v>0</v>
@@ -20361,7 +20361,7 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -20402,7 +20402,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="3" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q83" s="3" t="n">
         <v>0</v>
@@ -20600,24 +20600,16 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>7205080001</t>
+          <t>7201530002</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>BELLIS PERENNIS</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>M9A15</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>72</t>
@@ -20644,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -20653,19 +20645,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T2" s="6" t="inlineStr">
         <is>
@@ -20674,12 +20666,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -20691,17 +20683,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -20711,12 +20703,12 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -20765,7 +20757,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -20782,17 +20774,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7401740035</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>ANGELONIA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -20802,12 +20794,12 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -20826,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -20835,7 +20827,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>59</v>
@@ -20856,7 +20848,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
@@ -20873,17 +20865,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7901010009</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -20893,12 +20885,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -20917,7 +20909,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -20926,7 +20918,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>59</v>
@@ -20964,17 +20956,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>7501020003</t>
+          <t>7401740038</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>ERICA GRACILIS ROOD</t>
+          <t>STACHYS BYZANTINA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>M12A15</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -20984,12 +20976,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
@@ -21008,7 +21000,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
@@ -21017,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>59</v>
@@ -21038,7 +21030,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -21055,17 +21047,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>7401250010</t>
+          <t>7401740020</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLLUS</t>
+          <t>CAREX OSHIMENSIS</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>T22A30</t>
+          <t>2LA25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -21099,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -21108,16 +21100,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>206.67</v>
+        <v>393.33</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>30</v>
@@ -21129,12 +21121,12 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
@@ -21146,17 +21138,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7206100001</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>PRIMULA OBCONICA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -21166,12 +21158,12 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
@@ -21190,7 +21182,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
@@ -21199,19 +21191,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
         <is>
@@ -21220,12 +21212,12 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
@@ -21237,17 +21229,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>7905070001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>CEBOLLA FIGUERAS</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -21257,12 +21249,12 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
@@ -21281,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0</v>
@@ -21290,19 +21282,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T9" s="6" t="inlineStr">
         <is>
@@ -21311,12 +21303,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -21328,32 +21320,32 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>7503010004</t>
+          <t>7202290001</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN POMPON</t>
+          <t>LOBELIA ERINUS TRICOLOR</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>T23A30</t>
+          <t>3I6LCOLG</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -21387,13 +21379,13 @@
         <v>59</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
@@ -21402,12 +21394,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -21419,17 +21411,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7201530011</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>FREESIA HYBRIDA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -21439,12 +21431,12 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -21463,7 +21455,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0</v>
@@ -21472,19 +21464,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T11" s="6" t="inlineStr">
         <is>
@@ -21493,12 +21485,12 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
@@ -21510,22 +21502,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>7206030001</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>C18A20</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -21554,7 +21546,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -21563,16 +21555,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S12" s="4" t="n">
         <v>30</v>
@@ -21584,12 +21576,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -21601,17 +21593,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7905040016</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -21621,12 +21613,12 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
@@ -21645,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -21654,19 +21646,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T13" s="6" t="inlineStr">
         <is>
@@ -21675,12 +21667,12 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
@@ -21692,17 +21684,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -21712,12 +21704,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
@@ -21736,7 +21728,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -21745,19 +21737,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T14" s="6" t="inlineStr">
         <is>
@@ -21766,12 +21758,12 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
@@ -21783,17 +21775,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7206030002</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>C17A40</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -21803,12 +21795,12 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -21827,7 +21819,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
@@ -21836,7 +21828,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>59</v>
@@ -21857,7 +21849,7 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
@@ -21874,17 +21866,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -21894,12 +21886,12 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -21918,7 +21910,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
@@ -21927,7 +21919,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>59</v>
@@ -21948,7 +21940,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
@@ -21965,17 +21957,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>7401340000</t>
+          <t>7201350001</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>GAURA LINDHEIMERI</t>
+          <t>TAGETES PATULA</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -21985,12 +21977,12 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -22009,7 +22001,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0</v>
@@ -22018,19 +22010,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T17" s="6" t="inlineStr">
         <is>
@@ -22039,12 +22031,12 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
@@ -22056,17 +22048,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>7401740024</t>
+          <t>7905070001</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CAREX COMANS</t>
+          <t>CEBOLLA FIGUERAS</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -22076,12 +22068,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -22100,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -22109,19 +22101,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
@@ -22130,12 +22122,12 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
@@ -22147,17 +22139,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>7201050001</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA SEMPERFLORENS</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -22167,12 +22159,12 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -22191,7 +22183,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>0</v>
@@ -22200,19 +22192,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
@@ -22221,12 +22213,12 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
@@ -22238,12 +22230,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -22258,12 +22250,12 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
@@ -22282,7 +22274,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>0</v>
@@ -22291,7 +22283,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>59</v>
@@ -22312,7 +22304,7 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
@@ -22329,17 +22321,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -22349,12 +22341,12 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
@@ -22373,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>0</v>
@@ -22382,7 +22374,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>59</v>
@@ -22403,7 +22395,7 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
@@ -22420,17 +22412,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>7804090001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>ALLIUM SCHOENOPRASUM</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -22440,12 +22432,12 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
@@ -22494,7 +22486,7 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
@@ -22511,17 +22503,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -22531,12 +22523,12 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
@@ -22585,7 +22577,7 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
@@ -22602,32 +22594,32 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>7401740005</t>
+          <t>7503010004</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
+          <t>CHRYSANTHEMUN POMPON</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>T23A30</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -22646,7 +22638,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>0</v>
@@ -22655,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>59</v>
@@ -22676,7 +22668,7 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
@@ -22693,24 +22685,32 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7401740044</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="2" t="inlineStr"/>
+          <t>DURANTA REPENS</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2I5LA35</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>0</v>
@@ -22738,7 +22738,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>59</v>
@@ -22759,7 +22759,7 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
@@ -22776,17 +22776,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7904120007</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>LECHUGA MARAVILLA</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>M12A20</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -22796,12 +22796,12 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
@@ -22820,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>59</v>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
@@ -22867,17 +22867,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>7401740010</t>
+          <t>7203280002</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+          <t>LANTANA CAMARA COPA</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>C20A50</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -22887,12 +22887,12 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -22911,7 +22911,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>0</v>
@@ -22920,19 +22920,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T27" s="6" t="inlineStr">
         <is>
@@ -22941,12 +22941,12 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -22958,32 +22958,24 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>7901010009</t>
+          <t>7201530001</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>M105A10</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
@@ -23002,7 +22994,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0</v>
@@ -23011,19 +23003,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
@@ -23032,12 +23024,12 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
@@ -23049,17 +23041,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -23069,12 +23061,12 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
@@ -23093,7 +23085,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>0</v>
@@ -23102,19 +23094,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T29" s="6" t="inlineStr">
         <is>
@@ -23123,12 +23115,12 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
@@ -23140,17 +23132,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>7201350001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>TAGETES PATULA</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -23184,7 +23176,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>0</v>
@@ -23193,19 +23185,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T30" s="6" t="inlineStr">
         <is>
@@ -23214,12 +23206,12 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
@@ -23231,24 +23223,32 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>7201400002</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>PORTULACA UMBRATICOLA</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>LECHUGA COGOLLO</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>PACK6</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>59</v>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
@@ -23314,17 +23314,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7905040015</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>PIMIENTO PICANTE THAI</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -23334,12 +23334,12 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M32" s="4" t="n">
         <v>0</v>
@@ -23367,19 +23367,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T32" s="6" t="inlineStr">
         <is>
@@ -23388,12 +23388,12 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
@@ -23405,24 +23405,32 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>7201530003</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>CAPSICUM MIX M10</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>T25A25</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
@@ -23441,7 +23449,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>0</v>
@@ -23450,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>59</v>
@@ -23471,7 +23479,7 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
@@ -23488,17 +23496,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -23508,12 +23516,12 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -23532,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>0</v>
@@ -23541,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T34" s="6" t="inlineStr">
         <is>
@@ -23562,12 +23570,12 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -23579,32 +23587,24 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>M13A15</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYACINTHUS ORIENTALIS</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
@@ -23623,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>0</v>
@@ -23632,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>59</v>
@@ -23653,7 +23653,7 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
@@ -23670,17 +23670,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>7904120004</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -23690,12 +23690,12 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G36" s="3" t="n">
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>0</v>
@@ -23723,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>59</v>
@@ -23744,7 +23744,7 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
@@ -23761,17 +23761,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7805110003</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>SALVIA MYCROFOLIA</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -23805,7 +23805,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>0</v>
@@ -23814,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>59</v>
@@ -23835,7 +23835,7 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
@@ -23852,17 +23852,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>7206020003</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN PALODOSUM</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>59</v>
@@ -23926,7 +23926,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
@@ -23943,17 +23943,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7401380000</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>GAZANIA RIGENS (GAZOO)</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>C23A30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -23963,12 +23963,12 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G39" s="3" t="n">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M39" s="4" t="n">
         <v>0</v>
@@ -23996,19 +23996,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
@@ -24017,12 +24017,12 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
@@ -24034,17 +24034,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>7206030002</t>
+          <t>7804090001</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>ALLIUM SCHOENOPRASUM</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>C17A40</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -24054,12 +24054,12 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G40" s="3" t="n">
@@ -24078,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>0</v>
@@ -24087,7 +24087,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>59</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
@@ -24125,17 +24125,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -24145,12 +24145,12 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G41" s="3" t="n">
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T41" s="6" t="inlineStr">
         <is>
@@ -24199,12 +24199,12 @@
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
@@ -24216,17 +24216,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>7104090001</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -24236,12 +24236,12 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G42" s="3" t="n">
@@ -24275,13 +24275,13 @@
         <v>59</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T42" s="6" t="inlineStr">
         <is>
@@ -24290,12 +24290,12 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W42" s="3" t="inlineStr">
@@ -24307,17 +24307,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>7401740038</t>
+          <t>7805070001</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>STACHYS BYZANTINA</t>
+          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -24327,12 +24327,12 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G43" s="3" t="n">
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>0</v>
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>59</v>
@@ -24381,7 +24381,7 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
@@ -24398,32 +24398,24 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>7805110003</t>
+          <t>7201530004</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>SALVIA MYCROFOLIA</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>2I5LA45</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CATHARANTHUS ROSEUS</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G44" s="3" t="n">
@@ -24442,7 +24434,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>0</v>
@@ -24451,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>59</v>
@@ -24472,7 +24464,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
@@ -24489,17 +24481,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>7803160003</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>MENTHA SATIVA</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -24533,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>0</v>
@@ -24542,7 +24534,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>59</v>
@@ -24563,7 +24555,7 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
@@ -24580,17 +24572,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -24600,12 +24592,12 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G46" s="3" t="n">
@@ -24624,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>0</v>
@@ -24633,19 +24625,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T46" s="6" t="inlineStr">
         <is>
@@ -24654,12 +24646,12 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
@@ -24671,17 +24663,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>T25A20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -24691,12 +24683,12 @@
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
@@ -24730,13 +24722,13 @@
         <v>59</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>66.67</v>
+        <v>393.33</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T47" s="6" t="inlineStr">
         <is>
@@ -24745,12 +24737,12 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
@@ -24762,17 +24754,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>7401740039</t>
+          <t>7203230000</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>PHYLICA ERICOIDES</t>
+          <t>GERBERA JAMESONII</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -24782,12 +24774,12 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
@@ -24806,7 +24798,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>0</v>
@@ -24815,19 +24807,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T48" s="6" t="inlineStr">
         <is>
@@ -24836,12 +24828,12 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W48" s="3" t="inlineStr">
@@ -24853,17 +24845,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>7401380000</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>GAZANIA RIGENS (GAZOO)</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -24897,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>0</v>
@@ -24906,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>59</v>
@@ -24944,17 +24936,17 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -24964,12 +24956,12 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G50" s="3" t="n">
@@ -24988,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M50" s="4" t="n">
         <v>0</v>
@@ -24997,7 +24989,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>59</v>
@@ -25035,22 +25027,22 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>7201530011</t>
+          <t>7206030001</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>FREESIA HYBRIDA</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>C18A20</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>ROJO</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -25079,7 +25071,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M51" s="4" t="n">
         <v>0</v>
@@ -25088,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>20</v>
+        <v>253.33</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T51" s="6" t="inlineStr">
         <is>
@@ -25109,12 +25101,12 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
@@ -25126,17 +25118,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>7401740040</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>TECOMARIA CAPENSIS</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -25146,12 +25138,12 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G52" s="3" t="n">
@@ -25170,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M52" s="4" t="n">
         <v>0</v>
@@ -25179,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>59</v>
@@ -25200,7 +25192,7 @@
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
@@ -25217,32 +25209,24 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>7401740020</t>
+          <t>7201530003</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>CAREX OSHIMENSIS</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>2LA25</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM MIX M10</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
@@ -25261,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M53" s="4" t="n">
         <v>0</v>
@@ -25270,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>59</v>
@@ -25291,7 +25275,7 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr">
@@ -25308,17 +25292,17 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>7203280002</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA COPA</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>C20A50</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -25352,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M54" s="4" t="n">
         <v>0</v>
@@ -25361,19 +25345,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R54" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S54" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T54" s="6" t="inlineStr">
         <is>
@@ -25382,12 +25366,12 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W54" s="3" t="inlineStr">
@@ -25399,17 +25383,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>7206100001</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>PRIMULA OBCONICA</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>T25A20</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -25419,12 +25403,12 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
@@ -25443,7 +25427,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M55" s="4" t="n">
         <v>0</v>
@@ -25452,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T55" s="6" t="inlineStr">
         <is>
@@ -25473,12 +25457,12 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W55" s="3" t="inlineStr">
@@ -25490,24 +25474,32 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>7201530002</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr"/>
-      <c r="D56" s="2" t="inlineStr"/>
+          <t>RUDA GRAVEOLENS</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>M13A15</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
@@ -25526,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M56" s="4" t="n">
         <v>0</v>
@@ -25535,7 +25527,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>59</v>
@@ -25556,7 +25548,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
@@ -25573,17 +25565,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>7905040015</t>
+          <t>7401340000</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE THAI</t>
+          <t>GAURA LINDHEIMERI</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -25593,12 +25585,12 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
@@ -25617,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M57" s="4" t="n">
         <v>0</v>
@@ -25626,19 +25618,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R57" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S57" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T57" s="6" t="inlineStr">
         <is>
@@ -25647,12 +25639,12 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="3" t="inlineStr">
@@ -25664,17 +25656,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
@@ -25684,12 +25676,12 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
@@ -25708,7 +25700,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M58" s="4" t="n">
         <v>0</v>
@@ -25717,19 +25709,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R58" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S58" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T58" s="6" t="inlineStr">
         <is>
@@ -25738,12 +25730,12 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W58" s="3" t="inlineStr">
@@ -25755,17 +25747,17 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401740005</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>5LA25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
@@ -25775,12 +25767,12 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
@@ -25799,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M59" s="4" t="n">
         <v>0</v>
@@ -25808,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>59</v>
@@ -25829,7 +25821,7 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr">
@@ -25846,32 +25838,24 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>1I6LA20</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TAGETES ERECTA</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G60" s="3" t="n">
@@ -25890,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M60" s="4" t="n">
         <v>0</v>
@@ -25899,19 +25883,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T60" s="6" t="inlineStr">
         <is>
@@ -25920,12 +25904,12 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="3" t="inlineStr">
@@ -25937,24 +25921,32 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7401740010</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr"/>
-      <c r="D61" s="2" t="inlineStr"/>
+          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>M105A15</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G61" s="3" t="n">
@@ -25973,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M61" s="4" t="n">
         <v>0</v>
@@ -25982,19 +25974,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P61" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R61" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S61" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T61" s="6" t="inlineStr">
         <is>
@@ -26003,12 +25995,12 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W61" s="3" t="inlineStr">
@@ -26020,17 +26012,17 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7206020003</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>CHRYSANTHEMUN PALODOSUM</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -26064,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M62" s="4" t="n">
         <v>0</v>
@@ -26073,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P62" s="3" t="n">
         <v>59</v>
@@ -26094,7 +26086,7 @@
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
@@ -26111,17 +26103,17 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>1I6LA30</t>
+          <t>5LA25</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -26131,12 +26123,12 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G63" s="3" t="n">
@@ -26155,7 +26147,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M63" s="4" t="n">
         <v>0</v>
@@ -26164,7 +26156,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P63" s="3" t="n">
         <v>59</v>
@@ -26185,7 +26177,7 @@
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
@@ -26202,17 +26194,17 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>7202290001</t>
+          <t>7805110001</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>LOBELIA ERINUS TRICOLOR</t>
+          <t>SALVIA FARINACEA</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>3I6LCOLG</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -26222,12 +26214,12 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G64" s="3" t="n">
@@ -26246,7 +26238,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M64" s="4" t="n">
         <v>0</v>
@@ -26255,19 +26247,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P64" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R64" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S64" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T64" s="6" t="inlineStr">
         <is>
@@ -26276,12 +26268,12 @@
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W64" s="3" t="inlineStr">
@@ -26293,32 +26285,24 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7201400002</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>PACK12</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PORTULACA UMBRATICOLA</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G65" s="3" t="n">
@@ -26337,7 +26321,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M65" s="4" t="n">
         <v>0</v>
@@ -26346,19 +26330,19 @@
         <v>0</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P65" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="R65" s="3" t="n">
-        <v>100</v>
+        <v>393.33</v>
       </c>
       <c r="S65" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T65" s="6" t="inlineStr">
         <is>
@@ -26367,12 +26351,12 @@
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="3" t="inlineStr">
         <is>
-          <t>Compra 13/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W65" s="3" t="inlineStr">
@@ -26384,17 +26368,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>7805070001</t>
+          <t>7401740043</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
+          <t>CONVOLVULUS CNEORUM</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -26404,12 +26388,12 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G66" s="3" t="n">
@@ -26428,7 +26412,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M66" s="4" t="n">
         <v>0</v>
@@ -26437,7 +26421,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P66" s="3" t="n">
         <v>59</v>
@@ -26458,7 +26442,7 @@
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
@@ -26475,17 +26459,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -26495,12 +26479,12 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G67" s="3" t="n">
@@ -26519,7 +26503,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M67" s="4" t="n">
         <v>0</v>
@@ -26528,7 +26512,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>59</v>
@@ -26549,7 +26533,7 @@
       </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="3" t="inlineStr">
@@ -26566,17 +26550,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>7803250006</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
+          <t>MENTHA SPICATA</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -26610,7 +26594,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M68" s="4" t="n">
         <v>0</v>
@@ -26619,19 +26603,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P68" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R68" s="3" t="n">
-        <v>20</v>
+        <v>153.33</v>
       </c>
       <c r="S68" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T68" s="6" t="inlineStr">
         <is>
@@ -26640,12 +26624,12 @@
       </c>
       <c r="U68" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W68" s="3" t="inlineStr">
@@ -26657,24 +26641,32 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>7201530004</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>CATHARANTHUS ROSEUS</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr"/>
-      <c r="D69" s="2" t="inlineStr"/>
+          <t>APIUM GRAVEOLENS (APIO)</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>PACK6</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G69" s="3" t="n">
@@ -26693,7 +26685,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M69" s="4" t="n">
         <v>0</v>
@@ -26702,16 +26694,16 @@
         <v>0</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P69" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R69" s="3" t="n">
-        <v>393.33</v>
+        <v>253.33</v>
       </c>
       <c r="S69" s="4" t="n">
         <v>30</v>
@@ -26723,12 +26715,12 @@
       </c>
       <c r="U69" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W69" s="3" t="inlineStr">
@@ -26740,17 +26732,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -26760,12 +26752,12 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G70" s="3" t="n">
@@ -26784,7 +26776,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M70" s="4" t="n">
         <v>0</v>
@@ -26793,7 +26785,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P70" s="3" t="n">
         <v>59</v>
@@ -26814,7 +26806,7 @@
       </c>
       <c r="U70" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="3" t="inlineStr">
@@ -26831,17 +26823,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7401150001</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>CAMPANULA MEZCLA</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -26851,12 +26843,12 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G71" s="3" t="n">
@@ -26875,7 +26867,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M71" s="4" t="n">
         <v>0</v>
@@ -26884,19 +26876,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P71" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q71" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R71" s="3" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S71" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T71" s="6" t="inlineStr">
         <is>
@@ -26905,12 +26897,12 @@
       </c>
       <c r="U71" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W71" s="3" t="inlineStr">
@@ -26922,17 +26914,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>7206030005</t>
+          <t>7205080001</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>CYCLAMEN VINO TINTO</t>
+          <t>BELLIS PERENNIS</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -26966,7 +26958,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M72" s="4" t="n">
         <v>0</v>
@@ -26975,19 +26967,19 @@
         <v>0</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P72" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S72" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T72" s="6" t="inlineStr">
         <is>
@@ -26996,12 +26988,12 @@
       </c>
       <c r="U72" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W72" s="3" t="inlineStr">
@@ -27013,24 +27005,32 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>7201530001</t>
+          <t>7401740024</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr"/>
-      <c r="D73" s="2" t="inlineStr"/>
+          <t>CAREX COMANS</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>2LA20</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G73" s="3" t="n">
@@ -27049,7 +27049,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M73" s="4" t="n">
         <v>0</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P73" s="3" t="n">
         <v>59</v>
@@ -27079,7 +27079,7 @@
       </c>
       <c r="U73" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="3" t="inlineStr">
@@ -27096,17 +27096,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7104090001</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -27116,12 +27116,12 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G74" s="3" t="n">
@@ -27140,7 +27140,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M74" s="4" t="n">
         <v>0</v>
@@ -27149,19 +27149,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P74" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q74" s="3" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="R74" s="3" t="n">
-        <v>53.33</v>
+        <v>393.33</v>
       </c>
       <c r="S74" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T74" s="6" t="inlineStr">
         <is>
@@ -27170,12 +27170,12 @@
       </c>
       <c r="U74" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W74" s="3" t="inlineStr">
@@ -27187,17 +27187,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>7805110001</t>
+          <t>7401740040</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>SALVIA FARINACEA</t>
+          <t>TECOMARIA CAPENSIS</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -27207,12 +27207,12 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G75" s="3" t="n">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M75" s="4" t="n">
         <v>0</v>
@@ -27240,7 +27240,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P75" s="3" t="n">
         <v>59</v>
@@ -27261,7 +27261,7 @@
       </c>
       <c r="U75" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="3" t="inlineStr">
@@ -27278,17 +27278,17 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>7904120007</t>
+          <t>7202520009</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA</t>
+          <t>SOLANUM PSEUDOCAPSICUM</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
@@ -27298,12 +27298,12 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G76" s="3" t="n">
@@ -27322,7 +27322,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M76" s="4" t="n">
         <v>0</v>
@@ -27331,7 +27331,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P76" s="3" t="n">
         <v>59</v>
@@ -27352,7 +27352,7 @@
       </c>
       <c r="U76" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="3" t="inlineStr">
@@ -27369,17 +27369,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -27389,12 +27389,12 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G77" s="3" t="n">
@@ -27413,7 +27413,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M77" s="4" t="n">
         <v>0</v>
@@ -27422,16 +27422,16 @@
         <v>0</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P77" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R77" s="3" t="n">
-        <v>20</v>
+        <v>53.33</v>
       </c>
       <c r="S77" s="4" t="n">
         <v>0</v>
@@ -27448,7 +27448,7 @@
       </c>
       <c r="V77" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 20/02/2025</t>
         </is>
       </c>
       <c r="W77" s="3" t="inlineStr">
@@ -27460,17 +27460,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7501020003</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>ERICA GRACILIS ROOD</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>T25A25</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -27480,12 +27480,12 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G78" s="3" t="n">
@@ -27504,7 +27504,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M78" s="4" t="n">
         <v>0</v>
@@ -27513,7 +27513,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P78" s="3" t="n">
         <v>59</v>
@@ -27534,7 +27534,7 @@
       </c>
       <c r="U78" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="3" t="inlineStr">
@@ -27551,17 +27551,17 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>7203230000</t>
+          <t>7206030005</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>GERBERA JAMESONII</t>
+          <t>CYCLAMEN VINO TINTO</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -27595,7 +27595,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M79" s="4" t="n">
         <v>0</v>
@@ -27604,19 +27604,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P79" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R79" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S79" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T79" s="6" t="inlineStr">
         <is>
@@ -27625,12 +27625,12 @@
       </c>
       <c r="U79" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W79" s="3" t="inlineStr">
@@ -27642,17 +27642,17 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>7905040009</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C25COLG</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -27686,7 +27686,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M80" s="4" t="n">
         <v>0</v>
@@ -27695,19 +27695,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P80" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R80" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S80" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T80" s="6" t="inlineStr">
         <is>
@@ -27716,12 +27716,12 @@
       </c>
       <c r="U80" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W80" s="3" t="inlineStr">
@@ -27733,17 +27733,17 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>7401740043</t>
+          <t>7905040009</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>CONVOLVULUS CNEORUM</t>
+          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
@@ -27753,12 +27753,12 @@
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G81" s="3" t="n">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M81" s="4" t="n">
         <v>0</v>
@@ -27786,19 +27786,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P81" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q81" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R81" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S81" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T81" s="6" t="inlineStr">
         <is>
@@ -27807,12 +27807,12 @@
       </c>
       <c r="U81" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W81" s="3" t="inlineStr">
@@ -27824,17 +27824,17 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>7202520009</t>
+          <t>7803250006</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>SOLANUM PSEUDOCAPSICUM</t>
+          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -27844,12 +27844,12 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G82" s="3" t="n">
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M82" s="4" t="n">
         <v>0</v>
@@ -27877,19 +27877,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R82" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S82" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T82" s="6" t="inlineStr">
         <is>
@@ -27898,12 +27898,12 @@
       </c>
       <c r="U82" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W82" s="3" t="inlineStr">
@@ -27915,17 +27915,17 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>3LA45</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
@@ -27935,12 +27935,12 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G83" s="3" t="n">
@@ -27959,7 +27959,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M83" s="4" t="n">
         <v>0</v>
@@ -27968,19 +27968,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P83" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q83" s="3" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R83" s="3" t="n">
-        <v>253.33</v>
+        <v>20</v>
       </c>
       <c r="S83" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T83" s="6" t="inlineStr">
         <is>
@@ -27989,12 +27989,12 @@
       </c>
       <c r="U83" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="3" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W83" s="3" t="inlineStr">
@@ -28006,17 +28006,17 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7904120004</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA</t>
+          <t>LECHUGA ROMANA</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -28026,12 +28026,12 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G84" s="3" t="n">
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M84" s="4" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P84" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q84" s="3" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R84" s="3" t="n">
-        <v>153.33</v>
+        <v>393.33</v>
       </c>
       <c r="S84" s="4" t="n">
         <v>30</v>
@@ -28080,12 +28080,12 @@
       </c>
       <c r="U84" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W84" s="3" t="inlineStr">
@@ -28097,32 +28097,24 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>7905040016</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALENDULA OFFICINALIS</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G85" s="3" t="n">
@@ -28141,7 +28133,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M85" s="4" t="n">
         <v>0</v>
@@ -28150,19 +28142,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P85" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q85" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R85" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S85" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T85" s="6" t="inlineStr">
         <is>
@@ -28171,12 +28163,12 @@
       </c>
       <c r="U85" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W85" s="3" t="inlineStr">
@@ -28188,17 +28180,17 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>3LA45</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -28208,12 +28200,12 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G86" s="3" t="n">
@@ -28232,7 +28224,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M86" s="4" t="n">
         <v>0</v>
@@ -28241,19 +28233,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P86" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q86" s="3" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R86" s="3" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S86" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T86" s="6" t="inlineStr">
         <is>
@@ -28262,12 +28254,12 @@
       </c>
       <c r="U86" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W86" s="3" t="inlineStr">
@@ -28279,17 +28271,17 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>7901010005</t>
+          <t>7401250010</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>FRESA SAN ANDREAS</t>
+          <t>DIANTHUS CARYOPHYLLUS</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>T22A30</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
@@ -28299,12 +28291,12 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G87" s="3" t="n">
@@ -28323,7 +28315,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M87" s="4" t="n">
         <v>0</v>
@@ -28332,19 +28324,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P87" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="3" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R87" s="3" t="n">
-        <v>20</v>
+        <v>206.67</v>
       </c>
       <c r="S87" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T87" s="6" t="inlineStr">
         <is>
@@ -28353,12 +28345,12 @@
       </c>
       <c r="U87" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W87" s="3" t="inlineStr">
@@ -28370,17 +28362,17 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>7401150001</t>
+          <t>7901010005</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>CAMPANULA MEZCLA</t>
+          <t>FRESA SAN ANDREAS</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
@@ -28390,12 +28382,12 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G88" s="3" t="n">
@@ -28414,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M88" s="4" t="n">
         <v>0</v>
@@ -28423,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q88" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R88" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S88" s="4" t="n">
         <v>0</v>
@@ -28449,7 +28441,7 @@
       </c>
       <c r="V88" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W88" s="3" t="inlineStr">
@@ -28461,24 +28453,32 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7401740039</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr"/>
-      <c r="D89" s="2" t="inlineStr"/>
+          <t>PHYLICA ERICOIDES</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>2I5LA30</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G89" s="3" t="n">
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M89" s="4" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P89" s="3" t="n">
         <v>59</v>
@@ -28527,7 +28527,7 @@
       </c>
       <c r="U89" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="3" t="inlineStr">
@@ -28544,17 +28544,17 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>7401740035</t>
+          <t>7803160003</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>ANGELONIA ANGUSTIFOLIA</t>
+          <t>MENTHA SATIVA</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -28564,12 +28564,12 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G90" s="3" t="n">
@@ -28588,7 +28588,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M90" s="4" t="n">
         <v>0</v>
@@ -28597,7 +28597,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P90" s="3" t="n">
         <v>59</v>
@@ -28618,7 +28618,7 @@
       </c>
       <c r="U90" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="3" t="inlineStr">
@@ -28635,17 +28635,17 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>C25COLG</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
@@ -28655,12 +28655,12 @@
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G91" s="3" t="n">
@@ -28709,7 +28709,7 @@
       </c>
       <c r="U91" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="3" t="inlineStr">
@@ -28726,17 +28726,17 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M92" s="4" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P92" s="3" t="n">
         <v>59</v>
@@ -28817,17 +28817,17 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -28837,12 +28837,12 @@
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G93" s="3" t="n">
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M93" s="4" t="n">
         <v>0</v>
@@ -28870,19 +28870,19 @@
         <v>0</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P93" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="3" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R93" s="3" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S93" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T93" s="6" t="inlineStr">
         <is>
@@ -28891,12 +28891,12 @@
       </c>
       <c r="U93" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W93" s="3" t="inlineStr">
@@ -28908,17 +28908,17 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7201050001</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>BEGONIA SEMPERFLORENS</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -28928,12 +28928,12 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G94" s="3" t="n">
@@ -28952,7 +28952,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M94" s="4" t="n">
         <v>0</v>
@@ -28961,16 +28961,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P94" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R94" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S94" s="4" t="n">
         <v>0</v>
@@ -28987,7 +28987,7 @@
       </c>
       <c r="V94" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W94" s="3" t="inlineStr">
@@ -28999,17 +28999,17 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M95" s="4" t="n">
         <v>0</v>
@@ -29052,19 +29052,19 @@
         <v>0</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P95" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q95" s="3" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="R95" s="3" t="n">
-        <v>393.33</v>
+        <v>100</v>
       </c>
       <c r="S95" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T95" s="6" t="inlineStr">
         <is>
@@ -29073,12 +29073,12 @@
       </c>
       <c r="U95" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/02/2025</t>
         </is>
       </c>
       <c r="W95" s="3" t="inlineStr">
@@ -29090,17 +29090,17 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>7401740044</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>DURANTA REPENS</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>C23A30</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
@@ -29110,12 +29110,12 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G96" s="3" t="n">
@@ -29134,7 +29134,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M96" s="4" t="n">
         <v>0</v>
@@ -29143,7 +29143,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P96" s="3" t="n">
         <v>59</v>
@@ -29164,7 +29164,7 @@
       </c>
       <c r="U96" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="3" t="inlineStr">
